--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos para organizar no notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD742BA4-3C8B-4685-9CCC-7F3115D5CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A487F7DD-A909-4654-85A8-EAB5B7A6C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,25 +23,20 @@
     <sheet name="Outubro" sheetId="8" r:id="rId8"/>
     <sheet name="Novembro" sheetId="9" r:id="rId9"/>
     <sheet name="Dezembro" sheetId="10" r:id="rId10"/>
+    <sheet name="Janeiro23" sheetId="11" r:id="rId11"/>
+    <sheet name="Planilha2" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="105">
   <si>
     <t>Cartões</t>
   </si>
@@ -328,13 +323,34 @@
     <t>Mercado Livre</t>
   </si>
   <si>
+    <t>Essencia Z</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>(02/24)</t>
+  </si>
+  <si>
+    <t>(01/06)</t>
+  </si>
+  <si>
+    <t>Leroy Merlin</t>
+  </si>
+  <si>
+    <t>(02/06)</t>
+  </si>
+  <si>
+    <t>(03/24)</t>
+  </si>
+  <si>
     <t>(10/10)</t>
   </si>
   <si>
-    <t>(02/24)</t>
-  </si>
-  <si>
-    <t>Essencia Z</t>
+    <t>(03/06)</t>
+  </si>
+  <si>
+    <t>(04/24)</t>
   </si>
 </sst>
 </file>
@@ -346,7 +362,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +401,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +790,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,19 +1207,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="47" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="49"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1205,10 +1250,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1453,13 +1498,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="52">
+      <c r="E15" s="55">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1693,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1703C4A5-A417-495B-BBF7-93EDD3517250}">
-  <dimension ref="B3:N34"/>
+  <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,58 +1752,58 @@
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="K4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="F5" s="57" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="F5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1775,7 +1820,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>3800</v>
+        <v>3920</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -1785,7 +1830,9 @@
         <v>200</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="48">
+        <v>26</v>
+      </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
@@ -1796,10 +1843,12 @@
         <v>30</v>
       </c>
       <c r="H8" s="43">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="48">
+        <v>24.18</v>
+      </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
@@ -1815,7 +1864,9 @@
         <v>200</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="48">
+        <v>23.4</v>
+      </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
@@ -1830,10 +1881,12 @@
         <v>63</v>
       </c>
       <c r="H10" s="44">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K10" s="31"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="48">
+        <v>23.9</v>
+      </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
@@ -1846,11 +1899,13 @@
         <v>39</v>
       </c>
       <c r="H11" s="43">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I11" s="25"/>
       <c r="K11" s="31"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="48">
+        <v>23.9</v>
+      </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
@@ -1866,7 +1921,9 @@
         <v>13.95</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="48">
+        <v>20.9</v>
+      </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
@@ -1879,10 +1936,12 @@
         <v>90</v>
       </c>
       <c r="H13" s="43">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="48">
+        <v>20.9</v>
+      </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
@@ -1894,10 +1953,12 @@
         <v>62</v>
       </c>
       <c r="H14" s="43">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="48">
+        <v>20.9</v>
+      </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
@@ -1937,13 +1998,13 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H17" s="38">
-        <v>69.150000000000006</v>
+        <v>55</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="41"/>
@@ -1954,13 +2015,13 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H18" s="38">
-        <v>12.99</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="41"/>
@@ -1971,13 +2032,13 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H19" s="38">
-        <v>33.520000000000003</v>
+        <v>12.99</v>
       </c>
       <c r="K19" s="31"/>
       <c r="L19" s="41"/>
@@ -1988,13 +2049,13 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H20" s="38">
-        <v>78.849999999999994</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="41"/>
@@ -2005,13 +2066,13 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H21" s="38">
-        <v>14.48</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="41"/>
@@ -2022,15 +2083,14 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="38">
-        <v>15.96</v>
-      </c>
-      <c r="I22" s="25"/>
+        <v>14.48</v>
+      </c>
       <c r="K22" s="31"/>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -2040,13 +2100,13 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="H23" s="38">
-        <v>30.71</v>
+        <v>15.96</v>
       </c>
       <c r="I23" s="25"/>
       <c r="K23" s="31"/>
@@ -2058,13 +2118,13 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="38">
-        <v>33</v>
+        <v>102.17</v>
       </c>
       <c r="I24" s="25"/>
       <c r="K24" s="31"/>
@@ -2076,13 +2136,13 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="H25" s="38">
-        <v>257.25</v>
+        <v>41.57</v>
       </c>
       <c r="I25" s="25"/>
       <c r="K25" s="31"/>
@@ -2093,11 +2153,16 @@
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="G26" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="38"/>
+        <v>95</v>
+      </c>
+      <c r="H26" s="38">
+        <v>33</v>
+      </c>
+      <c r="I26" s="25"/>
       <c r="K26" s="31"/>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -2106,9 +2171,16 @@
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="38"/>
+      <c r="F27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I27" s="25"/>
       <c r="K27" s="31"/>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
@@ -2117,11 +2189,16 @@
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="39">
-        <f>SUM(H6:H27)</f>
-        <v>2871.7499999999995</v>
-      </c>
+      <c r="F28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I28" s="25"/>
       <c r="K28" s="31"/>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -2130,7 +2207,16 @@
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="H29" s="40"/>
+      <c r="F29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I29" s="25"/>
       <c r="K29" s="31"/>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -2139,7 +2225,16 @@
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
-      <c r="H30" s="40"/>
+      <c r="F30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I30" s="25"/>
       <c r="K30" s="31"/>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -2148,13 +2243,16 @@
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
-      <c r="G31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="39">
-        <f>SUM(M33)</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I31" s="25"/>
       <c r="K31" s="31"/>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -2163,14 +2261,17 @@
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="G32" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="39">
-        <f>D7</f>
-        <v>3800</v>
-      </c>
-      <c r="K32" s="34"/>
+      <c r="F32" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -2178,35 +2279,158 @@
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="G33" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="39">
-        <f>(H28+H31)</f>
-        <v>2871.7499999999995</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="39">
-        <f>SUM(L7:L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="27">
-        <f>SUM(M7:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="38">
+        <v>33</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="G34" s="28" t="s">
+      <c r="F34" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="38">
+        <v>700</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="47"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="39">
+        <f>SUM(H6:H36)</f>
+        <v>3277.59</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="H38" s="40"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="H39" s="40"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="39">
+        <f>L42</f>
+        <v>184.08</v>
+      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="39">
+        <f>D7</f>
+        <v>3920</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="39">
+        <f>(H37+H40)</f>
+        <v>3461.67</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="39">
+        <f>SUM(L7:L41)</f>
+        <v>184.08</v>
+      </c>
+      <c r="M42" s="27">
+        <f>SUM(M7:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="39">
-        <f>H32-H33</f>
-        <v>928.25000000000045</v>
+      <c r="H43" s="39">
+        <f>H41-H42</f>
+        <v>458.32999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2217,6 +2441,1455 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E8E4B-BABE-4715-8A29-CCAB0CF23F73}">
+  <dimension ref="B2:X42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="K3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="L5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>3620</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="43">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="44">
+        <v>70</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="43">
+        <v>600</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="45"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="43">
+        <v>50</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="43">
+        <v>23.4</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="43">
+        <v>25</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="43">
+        <v>25</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="38">
+        <v>55</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="43">
+        <v>25</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="43">
+        <v>25</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="38">
+        <v>12.99</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="43">
+        <v>25</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="43">
+        <v>19</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="43">
+        <v>25</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="43">
+        <v>25</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="X21" s="49"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="38">
+        <v>15.96</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="43">
+        <v>25</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="38">
+        <v>33</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="38">
+        <v>33</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="38">
+        <v>255.16</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="47"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="39">
+        <f>SUM(H5:H35)</f>
+        <v>2553</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="H37" s="40"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="H38" s="40"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="39">
+        <f>L41</f>
+        <v>397.20000000000005</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="39">
+        <f>D6</f>
+        <v>3620</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="39">
+        <f>(H36+H39)</f>
+        <v>2950.2</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="39">
+        <f>SUM(L6:L40)</f>
+        <v>397.20000000000005</v>
+      </c>
+      <c r="M41" s="27">
+        <f>SUM(M6:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="39">
+        <f>H40-H41</f>
+        <v>669.80000000000018</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9B8E9-4D8D-4284-B870-7900D6B49FD4}">
+  <dimension ref="B2:N42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="K3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="41"/>
+      <c r="L5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="43">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="43">
+        <v>22.9</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="43">
+        <v>600</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="41">
+        <v>19</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="41">
+        <v>19</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="45"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="43">
+        <v>100</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="41">
+        <v>19</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="43">
+        <v>200</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="41">
+        <v>19</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="41">
+        <v>19</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="38"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="41">
+        <v>19</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="38">
+        <v>55</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41">
+        <v>19</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="41">
+        <v>19</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="38">
+        <v>12.99</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="41">
+        <v>19</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="41">
+        <v>19</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="41">
+        <v>19</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41">
+        <v>19</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="38">
+        <v>15.96</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41">
+        <v>19</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41">
+        <v>19</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="38">
+        <v>33</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="38">
+        <v>33</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="38">
+        <v>623.76</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="47"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="39">
+        <f>SUM(H5:H35)</f>
+        <v>3101.6000000000004</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="H37" s="40"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="H38" s="40"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="39">
+        <f>L41</f>
+        <v>353.1</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="39">
+        <f>D6</f>
+        <v>4000</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="39">
+        <f>(H36+H39)</f>
+        <v>3454.7000000000003</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="39">
+        <f>SUM(L6:L40)</f>
+        <v>353.1</v>
+      </c>
+      <c r="M41" s="27">
+        <f>SUM(M6:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="39">
+        <f>H40-H41</f>
+        <v>545.29999999999973</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2248,52 +3921,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="K3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="K3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="E4" s="57" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -2833,52 +4506,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="K3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="K3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="E4" s="57" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -3429,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA4EAC8-B79D-48B8-9470-A1056C010D90}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,52 +5121,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="K4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="E5" s="57" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="E5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -4022,52 +5695,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="L4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="F5" s="57" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="F5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -4598,52 +6271,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="L4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -5268,52 +6941,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="L4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -5969,52 +7642,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="L4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -6615,10 +8288,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB5E7D-CF11-4FB8-8044-0598269B9C9C}">
-  <dimension ref="C3:O35"/>
+  <dimension ref="C3:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6632,55 +8305,56 @@
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="L4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -6718,7 +8392,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="43">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="41"/>
@@ -6752,7 +8426,7 @@
         <v>63</v>
       </c>
       <c r="I10" s="44">
-        <v>65</v>
+        <v>69.72</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="41"/>
@@ -6801,7 +8475,7 @@
         <v>90</v>
       </c>
       <c r="I13" s="43">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="41"/>
@@ -6855,7 +8529,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -6872,7 +8546,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -6889,7 +8563,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -6906,7 +8580,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -6923,7 +8597,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -6940,7 +8614,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -6958,14 +8632,14 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I23" s="38">
         <v>33</v>
@@ -6976,17 +8650,17 @@
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I24" s="38">
-        <v>30.71</v>
+        <v>14.92</v>
       </c>
       <c r="J24" s="25"/>
       <c r="L24" s="31"/>
@@ -6994,17 +8668,17 @@
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I25" s="38">
-        <v>33</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J25" s="25"/>
       <c r="L25" s="31"/>
@@ -7012,17 +8686,17 @@
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26" s="38">
-        <v>257.25</v>
+        <v>21.1</v>
       </c>
       <c r="J26" s="25"/>
       <c r="L26" s="31"/>
@@ -7030,125 +8704,224 @@
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="H27" s="24" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I27" s="38">
-        <v>275.64999999999998</v>
-      </c>
+        <v>20.16</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="L27" s="31"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="38"/>
+      <c r="G28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="L28" s="31"/>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="39">
-        <f>SUM(I6:I28)</f>
-        <v>2980.4</v>
-      </c>
+      <c r="G29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="L29" s="31"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="I30" s="40"/>
+      <c r="G30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="38">
+        <v>33</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="L30" s="31"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="S30" s="38"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
-      <c r="I31" s="40"/>
+      <c r="G31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="L31" s="31"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="S31" s="38"/>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
-      <c r="H32" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="39">
-        <f>SUM(N34)</f>
-        <v>0</v>
+      <c r="G32" s="28"/>
+      <c r="H32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="38">
+        <v>550</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="S32" s="38"/>
+    </row>
+    <row r="33" spans="4:19" ht="17.25" x14ac:dyDescent="0.4">
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
-      <c r="H33" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="39">
-        <f>E7</f>
-        <v>3600</v>
-      </c>
-      <c r="L33" s="34"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="47"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="S33" s="38"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
-      <c r="H34" s="28" t="s">
-        <v>27</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="39">
-        <f>(I29+I32)</f>
-        <v>2980.4</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="39">
-        <f>SUM(M7:M33)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="27">
-        <f>SUM(N7:N33)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+        <f>SUM(I6:I33)</f>
+        <v>3178.57</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="S34" s="38"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="I35" s="40"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="I36" s="40"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="H37" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="39">
+        <f>SUM(N39)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="H38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="39">
+        <f>E7</f>
+        <v>3600</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="S38" s="38"/>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="H39" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="39">
+        <f>(I34+I37)</f>
+        <v>3178.57</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="39">
+        <f>SUM(M7:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="27">
+        <f>SUM(N7:N38)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="H40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="39">
-        <f>I33-I34</f>
-        <v>619.59999999999991</v>
+      <c r="I40" s="39">
+        <f>I38-I39</f>
+        <v>421.42999999999984</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A487F7DD-A909-4654-85A8-EAB5B7A6C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A12EB-41FC-4399-B6D5-B9A2022E4CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
@@ -24,7 +24,8 @@
     <sheet name="Novembro" sheetId="9" r:id="rId9"/>
     <sheet name="Dezembro" sheetId="10" r:id="rId10"/>
     <sheet name="Janeiro23" sheetId="11" r:id="rId11"/>
-    <sheet name="Planilha2" sheetId="12" r:id="rId12"/>
+    <sheet name="Fevereiro23" sheetId="12" r:id="rId12"/>
+    <sheet name="Março23" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="107">
   <si>
     <t>Cartões</t>
   </si>
@@ -351,6 +352,12 @@
   </si>
   <si>
     <t>(04/24)</t>
+  </si>
+  <si>
+    <t>(04/06)</t>
+  </si>
+  <si>
+    <t>(05/24)</t>
   </si>
 </sst>
 </file>
@@ -3176,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9B8E9-4D8D-4284-B870-7900D6B49FD4}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,7 +3264,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -3338,8 +3345,8 @@
       </c>
       <c r="I10" s="25"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="41">
-        <v>19</v>
+      <c r="L10" s="43">
+        <v>25.4</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -3356,8 +3363,8 @@
         <v>13.95</v>
       </c>
       <c r="K11" s="31"/>
-      <c r="L11" s="41">
-        <v>19</v>
+      <c r="L11" s="43">
+        <v>23.99</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -3371,10 +3378,10 @@
         <v>90</v>
       </c>
       <c r="H12" s="43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="41">
+      <c r="L12" s="43">
         <v>19</v>
       </c>
       <c r="M12" s="41"/>
@@ -3391,8 +3398,8 @@
         <v>200</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="41">
-        <v>19</v>
+      <c r="L13" s="43">
+        <v>26.4</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -3575,9 +3582,7 @@
       </c>
       <c r="I23" s="25"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="41">
-        <v>19</v>
-      </c>
+      <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
@@ -3769,7 +3774,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="38">
-        <v>623.76</v>
+        <v>776</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="41"/>
@@ -3793,7 +3798,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="39">
         <f>SUM(H5:H35)</f>
-        <v>3101.6000000000004</v>
+        <v>3203.84</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="41"/>
@@ -3826,7 +3831,7 @@
       </c>
       <c r="H39" s="39">
         <f>L41</f>
-        <v>353.1</v>
+        <v>352.89</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
@@ -3841,7 +3846,7 @@
       </c>
       <c r="H40" s="39">
         <f>D6</f>
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="41"/>
@@ -3856,14 +3861,14 @@
       </c>
       <c r="H41" s="39">
         <f>(H36+H39)</f>
-        <v>3454.7000000000003</v>
+        <v>3556.73</v>
       </c>
       <c r="K41" s="28" t="s">
         <v>47</v>
       </c>
       <c r="L41" s="39">
         <f>SUM(L6:L40)</f>
-        <v>353.1</v>
+        <v>352.89</v>
       </c>
       <c r="M41" s="27">
         <f>SUM(M6:M40)</f>
@@ -3879,7 +3884,7 @@
       </c>
       <c r="H42" s="39">
         <f>H40-H41</f>
-        <v>545.29999999999973</v>
+        <v>643.27</v>
       </c>
     </row>
   </sheetData>
@@ -3890,6 +3895,721 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B899B-55A7-417D-A99A-E5C75FBAF0D9}">
+  <dimension ref="B3:N43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="K4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="F5" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="41"/>
+      <c r="L6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4700</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="41">
+        <v>19</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="41">
+        <v>19</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="43">
+        <v>200</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="41">
+        <v>19</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="41">
+        <v>19</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="43">
+        <v>600</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="41">
+        <v>19</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="41">
+        <v>19</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="43">
+        <v>200</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="41">
+        <v>19</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="43">
+        <v>200</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="41">
+        <v>19</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="41">
+        <v>19</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="38"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41">
+        <v>19</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="38">
+        <v>55</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="41">
+        <v>19</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="38">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="41">
+        <v>19</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="41">
+        <v>19</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="41">
+        <v>19</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41">
+        <v>19</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41">
+        <v>19</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41">
+        <v>19</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="38">
+        <v>33</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41">
+        <v>19</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41">
+        <v>19</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41">
+        <v>19</v>
+      </c>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41">
+        <v>19</v>
+      </c>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41">
+        <v>19</v>
+      </c>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41">
+        <v>19</v>
+      </c>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="38">
+        <v>33</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="38">
+        <v>40</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="39">
+        <f>SUM(H6:H34)</f>
+        <v>2588.8900000000003</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="H36" s="40"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="H37" s="40"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="39">
+        <f>L42</f>
+        <v>437</v>
+      </c>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="39">
+        <f>D7</f>
+        <v>4700</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="39">
+        <f>(H35+H38)</f>
+        <v>3025.8900000000003</v>
+      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="39">
+        <f>H39-H40</f>
+        <v>1674.1099999999997</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="K42" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="39">
+        <f>SUM(L7:L41)</f>
+        <v>437</v>
+      </c>
+      <c r="M42" s="27">
+        <f>SUM(M7:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A12EB-41FC-4399-B6D5-B9A2022E4CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1E991-AF9A-4A76-83ED-54A07D7EB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3183,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9B8E9-4D8D-4284-B870-7900D6B49FD4}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q21:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,8 +3415,8 @@
         <v>97.14</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="41">
-        <v>19</v>
+      <c r="L14" s="43">
+        <v>23.4</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -3428,7 +3428,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="38"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="41">
+      <c r="L15" s="43">
         <v>19</v>
       </c>
       <c r="M15" s="41"/>
@@ -3485,9 +3485,7 @@
         <v>12.99</v>
       </c>
       <c r="K18" s="31"/>
-      <c r="L18" s="41">
-        <v>19</v>
-      </c>
+      <c r="L18" s="41"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
@@ -3504,9 +3502,7 @@
         <v>33.520000000000003</v>
       </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="41">
-        <v>19</v>
-      </c>
+      <c r="L19" s="41"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
@@ -3523,9 +3519,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="41">
-        <v>19</v>
-      </c>
+      <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
@@ -3542,9 +3536,7 @@
         <v>14.48</v>
       </c>
       <c r="K21" s="31"/>
-      <c r="L21" s="41">
-        <v>19</v>
-      </c>
+      <c r="L21" s="41"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
@@ -3562,9 +3554,7 @@
       </c>
       <c r="I22" s="25"/>
       <c r="K22" s="31"/>
-      <c r="L22" s="41">
-        <v>19</v>
-      </c>
+      <c r="L22" s="41"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
@@ -3774,7 +3764,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="38">
-        <v>776</v>
+        <v>906.83</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="41"/>
@@ -3798,7 +3788,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="39">
         <f>SUM(H5:H35)</f>
-        <v>3203.84</v>
+        <v>3334.67</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="41"/>
@@ -3831,7 +3821,7 @@
       </c>
       <c r="H39" s="39">
         <f>L41</f>
-        <v>352.89</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
@@ -3861,14 +3851,14 @@
       </c>
       <c r="H41" s="39">
         <f>(H36+H39)</f>
-        <v>3556.73</v>
+        <v>3596.96</v>
       </c>
       <c r="K41" s="28" t="s">
         <v>47</v>
       </c>
       <c r="L41" s="39">
         <f>SUM(L6:L40)</f>
-        <v>352.89</v>
+        <v>262.29000000000002</v>
       </c>
       <c r="M41" s="27">
         <f>SUM(M6:M40)</f>
@@ -3884,7 +3874,7 @@
       </c>
       <c r="H42" s="39">
         <f>H40-H41</f>
-        <v>643.27</v>
+        <v>603.04</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3895,7 @@
   <dimension ref="B3:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Q6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,7 +4106,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="41">
@@ -4497,7 +4487,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="39">
         <f>SUM(H6:H34)</f>
-        <v>2588.8900000000003</v>
+        <v>2488.89</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="41"/>
@@ -4560,7 +4550,7 @@
       </c>
       <c r="H40" s="39">
         <f>(H35+H38)</f>
-        <v>3025.8900000000003</v>
+        <v>2925.89</v>
       </c>
       <c r="K40" s="31"/>
       <c r="L40" s="41"/>
@@ -4575,7 +4565,7 @@
       </c>
       <c r="H41" s="39">
         <f>H39-H40</f>
-        <v>1674.1099999999997</v>
+        <v>1774.1100000000001</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="41"/>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1E991-AF9A-4A76-83ED-54A07D7EB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779FA2C-4EE1-4170-BE1D-E13073F2D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Janeiro23" sheetId="11" r:id="rId11"/>
     <sheet name="Fevereiro23" sheetId="12" r:id="rId12"/>
     <sheet name="Março23" sheetId="13" r:id="rId13"/>
+    <sheet name="Abril23" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="115">
   <si>
     <t>Cartões</t>
   </si>
@@ -358,6 +359,30 @@
   </si>
   <si>
     <t>(05/24)</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Celular Fay</t>
+  </si>
+  <si>
+    <t>Mercado Livre/ T</t>
+  </si>
+  <si>
+    <t>(05/06)</t>
+  </si>
+  <si>
+    <t>(06/24)</t>
+  </si>
+  <si>
+    <t>Capactor V</t>
+  </si>
+  <si>
+    <t>(01/18)</t>
+  </si>
+  <si>
+    <t>Mercado Livre / Teclado</t>
   </si>
 </sst>
 </file>
@@ -691,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +829,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,19 +1240,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1257,10 +1283,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1505,13 +1531,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="55">
+      <c r="E15" s="56">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1765,52 +1791,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="K4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -2476,52 +2502,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="F4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -3183,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9B8E9-4D8D-4284-B870-7900D6B49FD4}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q21:Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3219,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -3201,52 +3227,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="F4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
@@ -3264,7 +3290,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4200</v>
+        <v>4375</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -3378,7 +3404,7 @@
         <v>90</v>
       </c>
       <c r="H12" s="43">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="43">
@@ -3395,7 +3421,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="43">
@@ -3447,9 +3473,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="41">
-        <v>19</v>
-      </c>
+      <c r="L16" s="43"/>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
@@ -3466,9 +3490,7 @@
         <v>69.150000000000006</v>
       </c>
       <c r="K17" s="31"/>
-      <c r="L17" s="41">
-        <v>19</v>
-      </c>
+      <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
@@ -3764,7 +3786,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="38">
-        <v>906.83</v>
+        <v>1140.83</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="41"/>
@@ -3788,7 +3810,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="39">
         <f>SUM(H5:H35)</f>
-        <v>3334.67</v>
+        <v>3618.67</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="41"/>
@@ -3821,7 +3843,7 @@
       </c>
       <c r="H39" s="39">
         <f>L41</f>
-        <v>262.29000000000002</v>
+        <v>224.29000000000002</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
@@ -3836,7 +3858,7 @@
       </c>
       <c r="H40" s="39">
         <f>D6</f>
-        <v>4200</v>
+        <v>4375</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="41"/>
@@ -3851,14 +3873,14 @@
       </c>
       <c r="H41" s="39">
         <f>(H36+H39)</f>
-        <v>3596.96</v>
+        <v>3842.96</v>
       </c>
       <c r="K41" s="28" t="s">
         <v>47</v>
       </c>
       <c r="L41" s="39">
         <f>SUM(L6:L40)</f>
-        <v>262.29000000000002</v>
+        <v>224.29000000000002</v>
       </c>
       <c r="M41" s="27">
         <f>SUM(M6:M40)</f>
@@ -3874,7 +3896,7 @@
       </c>
       <c r="H42" s="39">
         <f>H40-H41</f>
-        <v>603.04</v>
+        <v>532.04</v>
       </c>
     </row>
   </sheetData>
@@ -3892,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B899B-55A7-417D-A99A-E5C75FBAF0D9}">
-  <dimension ref="B3:N43"/>
+  <dimension ref="B3:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3925,880 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="K4" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="Q4" s="50"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="F5" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="41"/>
+      <c r="L6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4900</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="43">
+        <v>230</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="43">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="43">
+        <v>200</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="43">
+        <v>25.4</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="44">
+        <v>70</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="43">
+        <v>20.9</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="43">
+        <v>600</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="43">
+        <v>300</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="43">
+        <v>50</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="41">
+        <v>19</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="41">
+        <v>19</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41">
+        <v>19</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
+        <v>46.6</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="41">
+        <v>19</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="38">
+        <v>29.1</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="41">
+        <v>19</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="38">
+        <v>103.7</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="41">
+        <v>19</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="38">
+        <v>12.45</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="41">
+        <v>19</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="Q20" s="50"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="38">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41">
+        <v>19</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="38">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41">
+        <v>19</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41">
+        <v>19</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="Q23" s="50"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="38">
+        <v>74.72</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41">
+        <v>19</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="Q24" s="50"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="Q25" s="50"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="Q26" s="50"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="Q27" s="50"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="Q28" s="50"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="38">
+        <v>33</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="Q29" s="50"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="Q30" s="50"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="Q31" s="50"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="Q34" s="50"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="38">
+        <v>33</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="38">
+        <v>668.7</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:17" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="25"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="39">
+        <f>SUM(H6:H40)</f>
+        <v>3630.96</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="Q41" s="50"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="Q42" s="50"/>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="H43" s="40"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="Q43" s="50"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="39">
+        <f>SUM(L48)</f>
+        <v>358.3</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="Q44" s="50"/>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="39">
+        <f>D7</f>
+        <v>4900</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="Q45" s="50"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="39">
+        <f>(H41+H44)</f>
+        <v>3989.26</v>
+      </c>
+      <c r="K46" s="31"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="Q46" s="50"/>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="G47" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="39">
+        <f>H45-H46</f>
+        <v>910.73999999999978</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="Q47" s="50"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="27">
+        <f>SUM(L7:L47)</f>
+        <v>358.3</v>
+      </c>
+      <c r="M48" s="27">
+        <f>SUM(M7:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="28"/>
+      <c r="Q48" s="50"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="Q49" s="50"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="50"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="50"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="50"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="50"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="50"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="50"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07543B42-7DB5-46C9-BD91-2D1F24F4A79B}">
+  <dimension ref="B3:N48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3912,52 +4807,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="K4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
@@ -3975,7 +4870,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -3998,7 +4893,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="43">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="41">
@@ -4035,7 +4930,9 @@
       <c r="G10" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="44">
+        <v>70.099999999999994</v>
+      </c>
       <c r="K10" s="31"/>
       <c r="L10" s="41">
         <v>19</v>
@@ -4089,7 +4986,7 @@
         <v>90</v>
       </c>
       <c r="H13" s="43">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="41">
@@ -4106,7 +5003,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="41">
@@ -4136,8 +5033,8 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="K16" s="31"/>
       <c r="L16" s="41">
         <v>19</v>
@@ -4149,13 +5046,13 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H17" s="38">
-        <v>55</v>
+        <v>46.6</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="41">
@@ -4168,13 +5065,13 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="H18" s="38">
-        <v>69.150000000000006</v>
+        <v>29.1</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="41">
@@ -4187,13 +5084,13 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="H19" s="38">
-        <v>33.520000000000003</v>
+        <v>103.7</v>
       </c>
       <c r="K19" s="31"/>
       <c r="L19" s="41">
@@ -4206,13 +5103,13 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="H20" s="38">
-        <v>78.849999999999994</v>
+        <v>12.45</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="41">
@@ -4225,13 +5122,13 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H21" s="38">
-        <v>14.48</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="41">
@@ -4244,13 +5141,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H22" s="38">
-        <v>102.17</v>
+        <v>74.72</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="41">
@@ -4263,15 +5160,14 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H23" s="38">
-        <v>41.57</v>
-      </c>
-      <c r="I23" s="25"/>
+        <v>78.849999999999994</v>
+      </c>
       <c r="K23" s="31"/>
       <c r="L23" s="41">
         <v>19</v>
@@ -4283,15 +5179,14 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H24" s="38">
-        <v>33</v>
-      </c>
-      <c r="I24" s="25"/>
+        <v>14.48</v>
+      </c>
       <c r="K24" s="31"/>
       <c r="L24" s="41">
         <v>19</v>
@@ -4303,15 +5198,14 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H25" s="38">
-        <v>14.92</v>
-      </c>
-      <c r="I25" s="25"/>
+        <v>102.17</v>
+      </c>
       <c r="K25" s="31"/>
       <c r="L25" s="41">
         <v>19</v>
@@ -4326,16 +5220,13 @@
         <v>66</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="H26" s="38">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I26" s="25"/>
+        <v>41.57</v>
+      </c>
       <c r="K26" s="31"/>
-      <c r="L26" s="41">
-        <v>19</v>
-      </c>
+      <c r="L26" s="41"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
@@ -4343,19 +5234,16 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="38">
-        <v>21.1</v>
-      </c>
-      <c r="I27" s="25"/>
+        <v>33</v>
+      </c>
       <c r="K27" s="31"/>
-      <c r="L27" s="41">
-        <v>19</v>
-      </c>
+      <c r="L27" s="41"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
@@ -4363,19 +5251,17 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H28" s="38">
-        <v>20.16</v>
+        <v>14.92</v>
       </c>
       <c r="I28" s="25"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="41">
-        <v>19</v>
-      </c>
+      <c r="L28" s="41"/>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
@@ -4383,19 +5269,17 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H29" s="38">
-        <v>15.02</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I29" s="25"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="41">
-        <v>19</v>
-      </c>
+      <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
@@ -4403,13 +5287,13 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H30" s="38">
-        <v>30.71</v>
+        <v>21.1</v>
       </c>
       <c r="I30" s="25"/>
       <c r="K30" s="31"/>
@@ -4421,13 +5305,13 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" s="38">
-        <v>33</v>
+        <v>20.16</v>
       </c>
       <c r="I31" s="25"/>
       <c r="K31" s="31"/>
@@ -4439,13 +5323,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" s="38">
-        <v>257.25</v>
+        <v>15.02</v>
       </c>
       <c r="I32" s="25"/>
       <c r="K32" s="31"/>
@@ -4456,12 +5340,14 @@
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="G33" s="24" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H33" s="38">
-        <v>40</v>
+        <v>30.71</v>
       </c>
       <c r="I33" s="25"/>
       <c r="K33" s="31"/>
@@ -4469,12 +5355,18 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="47"/>
+      <c r="F34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="38">
+        <v>33</v>
+      </c>
       <c r="I34" s="25"/>
       <c r="K34" s="31"/>
       <c r="L34" s="41"/>
@@ -4484,11 +5376,16 @@
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="39">
-        <f>SUM(H6:H34)</f>
-        <v>2488.89</v>
-      </c>
+      <c r="F35" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I35" s="25"/>
       <c r="K35" s="31"/>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
@@ -4497,7 +5394,16 @@
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="H36" s="40"/>
+      <c r="F36" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I36" s="25"/>
       <c r="K36" s="31"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
@@ -4506,22 +5412,24 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="H37" s="40"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="25"/>
       <c r="K37" s="31"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="G38" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="39">
-        <f>L42</f>
-        <v>437</v>
-      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="25"/>
       <c r="K38" s="31"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
@@ -4530,13 +5438,12 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="G39" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="39">
-        <f>D7</f>
-        <v>4700</v>
-      </c>
+        <f>SUM(H6:H38)</f>
+        <v>2988.2099999999996</v>
+      </c>
+      <c r="I39" s="25"/>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
@@ -4545,13 +5452,8 @@
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
-      <c r="G40" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="39">
-        <f>(H35+H38)</f>
-        <v>2925.89</v>
-      </c>
+      <c r="H40" s="40"/>
+      <c r="I40" s="25"/>
       <c r="K40" s="31"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
@@ -4560,14 +5462,8 @@
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="G41" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="39">
-        <f>H39-H40</f>
-        <v>1774.1100000000001</v>
-      </c>
-      <c r="K41" s="34"/>
+      <c r="H41" s="40"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -4575,22 +5471,94 @@
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
-      <c r="K42" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="39">
-        <f>SUM(L7:L41)</f>
-        <v>437</v>
-      </c>
-      <c r="M42" s="27">
-        <f>SUM(M7:M41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="28"/>
+      <c r="G42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="39">
+        <f>L48</f>
+        <v>361</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="39">
+        <f>D7</f>
+        <v>4200</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="39">
+        <f>(H39+H42)</f>
+        <v>3349.2099999999996</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="39">
+        <f>H43-H44</f>
+        <v>850.79000000000042</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="27">
+        <f>SUM(L7:L47)</f>
+        <v>361</v>
+      </c>
+      <c r="M48" s="27">
+        <f>SUM(M7:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4631,52 +5599,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -5216,52 +6184,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -5831,52 +6799,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="E5" s="60" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="E5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -6405,52 +7373,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -6981,52 +7949,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -7651,52 +8619,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -8352,52 +9320,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -9019,52 +9987,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="L4" s="59" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779FA2C-4EE1-4170-BE1D-E13073F2D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC1AEC-D687-430B-8F8C-76F6659854F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="12" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3916,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B899B-55A7-417D-A99A-E5C75FBAF0D9}">
   <dimension ref="B3:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -4144,7 +4144,7 @@
         <v>50</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="41">
+      <c r="L14" s="43">
         <v>19</v>
       </c>
       <c r="M14" s="41"/>
@@ -4162,8 +4162,8 @@
         <v>97.14</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="L15" s="41">
-        <v>19</v>
+      <c r="L15" s="43">
+        <v>22.9</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -4509,7 +4509,6 @@
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
-      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
@@ -4528,7 +4527,6 @@
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
-      <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
@@ -4610,7 +4608,7 @@
         <v>48</v>
       </c>
       <c r="H39" s="38">
-        <v>668.7</v>
+        <v>787.7</v>
       </c>
       <c r="I39" s="25"/>
       <c r="K39" s="31"/>
@@ -4636,7 +4634,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="39">
         <f>SUM(H6:H40)</f>
-        <v>3630.96</v>
+        <v>3749.96</v>
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="41"/>
@@ -4672,7 +4670,7 @@
       </c>
       <c r="H44" s="39">
         <f>SUM(L48)</f>
-        <v>358.3</v>
+        <v>362.20000000000005</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="41"/>
@@ -4688,7 +4686,7 @@
       </c>
       <c r="H45" s="39">
         <f>D7</f>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="41"/>
@@ -4704,7 +4702,7 @@
       </c>
       <c r="H46" s="39">
         <f>(H41+H44)</f>
-        <v>3989.26</v>
+        <v>4112.16</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="41"/>
@@ -4720,7 +4718,7 @@
       </c>
       <c r="H47" s="39">
         <f>H45-H46</f>
-        <v>910.73999999999978</v>
+        <v>887.84000000000015</v>
       </c>
       <c r="K47" s="34"/>
       <c r="L47" s="41"/>
@@ -4736,7 +4734,7 @@
       </c>
       <c r="L48" s="27">
         <f>SUM(L7:L47)</f>
-        <v>358.3</v>
+        <v>362.20000000000005</v>
       </c>
       <c r="M48" s="27">
         <f>SUM(M7:M47)</f>
@@ -4789,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07543B42-7DB5-46C9-BD91-2D1F24F4A79B}">
   <dimension ref="B3:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC1AEC-D687-430B-8F8C-76F6659854F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12F8D0-173C-4557-9596-4E01C62273C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="12" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="14" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Fevereiro23" sheetId="12" r:id="rId12"/>
     <sheet name="Março23" sheetId="13" r:id="rId13"/>
     <sheet name="Abril23" sheetId="14" r:id="rId14"/>
+    <sheet name="Maio23" sheetId="15" r:id="rId15"/>
+    <sheet name="Planilha2" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="124">
   <si>
     <t>Cartões</t>
   </si>
@@ -384,6 +386,33 @@
   <si>
     <t>Mercado Livre / Teclado</t>
   </si>
+  <si>
+    <t>(02/18)</t>
+  </si>
+  <si>
+    <t>(06/06)</t>
+  </si>
+  <si>
+    <t>(07/24)</t>
+  </si>
+  <si>
+    <t>(01/08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presente Miriãn </t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>(01/04)</t>
+  </si>
+  <si>
+    <t>Rodeio</t>
+  </si>
+  <si>
+    <t>(03/18)</t>
+  </si>
 </sst>
 </file>
 
@@ -450,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +531,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,6 +865,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1240,19 +1279,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1283,10 +1322,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1531,13 +1570,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="56">
+      <c r="E15" s="58">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1791,52 +1830,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="K4" s="60" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -2502,52 +2541,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="K3" s="60" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -3227,52 +3266,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="K3" s="60" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
@@ -3916,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329B899B-55A7-417D-A99A-E5C75FBAF0D9}">
   <dimension ref="B3:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,61 +3967,61 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="K4" s="60" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
@@ -4001,7 +4040,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -4123,7 +4162,7 @@
         <v>90</v>
       </c>
       <c r="H13" s="43">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="43">
@@ -4140,9 +4179,7 @@
       <c r="G14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="43">
-        <v>50</v>
-      </c>
+      <c r="H14" s="43"/>
       <c r="K14" s="31"/>
       <c r="L14" s="43">
         <v>19</v>
@@ -4176,8 +4213,8 @@
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="K16" s="31"/>
-      <c r="L16" s="41">
-        <v>19</v>
+      <c r="L16" s="43">
+        <v>23.9</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -4196,8 +4233,8 @@
         <v>46.6</v>
       </c>
       <c r="K17" s="31"/>
-      <c r="L17" s="41">
-        <v>19</v>
+      <c r="L17" s="43">
+        <v>18.899999999999999</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -4216,7 +4253,7 @@
         <v>29.1</v>
       </c>
       <c r="K18" s="31"/>
-      <c r="L18" s="41">
+      <c r="L18" s="43">
         <v>19</v>
       </c>
       <c r="M18" s="41"/>
@@ -4236,7 +4273,7 @@
         <v>103.7</v>
       </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="41">
+      <c r="L19" s="43">
         <v>19</v>
       </c>
       <c r="M19" s="41"/>
@@ -4256,7 +4293,7 @@
         <v>12.45</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="41">
+      <c r="L20" s="43">
         <v>19</v>
       </c>
       <c r="M20" s="41"/>
@@ -4336,9 +4373,7 @@
         <v>74.72</v>
       </c>
       <c r="K24" s="31"/>
-      <c r="L24" s="41">
-        <v>19</v>
-      </c>
+      <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
       <c r="Q24" s="50"/>
@@ -4608,7 +4643,7 @@
         <v>48</v>
       </c>
       <c r="H39" s="38">
-        <v>787.7</v>
+        <v>1150</v>
       </c>
       <c r="I39" s="25"/>
       <c r="K39" s="31"/>
@@ -4634,7 +4669,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="39">
         <f>SUM(H6:H40)</f>
-        <v>3749.96</v>
+        <v>3862.26</v>
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="41"/>
@@ -4670,7 +4705,7 @@
       </c>
       <c r="H44" s="39">
         <f>SUM(L48)</f>
-        <v>362.20000000000005</v>
+        <v>348</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="41"/>
@@ -4686,7 +4721,7 @@
       </c>
       <c r="H45" s="39">
         <f>D7</f>
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="41"/>
@@ -4702,7 +4737,7 @@
       </c>
       <c r="H46" s="39">
         <f>(H41+H44)</f>
-        <v>4112.16</v>
+        <v>4210.26</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="41"/>
@@ -4718,7 +4753,7 @@
       </c>
       <c r="H47" s="39">
         <f>H45-H46</f>
-        <v>887.84000000000015</v>
+        <v>889.73999999999978</v>
       </c>
       <c r="K47" s="34"/>
       <c r="L47" s="41"/>
@@ -4734,7 +4769,7 @@
       </c>
       <c r="L48" s="27">
         <f>SUM(L7:L47)</f>
-        <v>362.20000000000005</v>
+        <v>348</v>
       </c>
       <c r="M48" s="27">
         <f>SUM(M7:M47)</f>
@@ -4785,10 +4820,1651 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07543B42-7DB5-46C9-BD91-2D1F24F4A79B}">
-  <dimension ref="B3:N48"/>
+  <dimension ref="B3:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:V53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="K4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="L6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4100</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="43">
+        <v>200</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="43">
+        <v>230</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="43">
+        <v>200</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="44">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="43">
+        <v>600</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="43">
+        <v>13.95</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="43">
+        <v>200</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="43">
+        <v>19</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="43">
+        <v>19</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="43">
+        <v>19</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38">
+        <v>46.6</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="43">
+        <v>19</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="38">
+        <v>29.1</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="43">
+        <v>19</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="38">
+        <v>103.7</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="43">
+        <v>19</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="38">
+        <v>12.45</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="43">
+        <v>19</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="38">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="38">
+        <v>74.72</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="38">
+        <v>14.48</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="38">
+        <v>33</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="38">
+        <v>33</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="51"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="38">
+        <v>950</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="3:20" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="39">
+        <f>SUM(H6:H38)</f>
+        <v>3638.21</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="25"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="39">
+        <f>L48</f>
+        <v>265.3</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="39">
+        <f>D7</f>
+        <v>4100</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="39">
+        <f>(H39+H42)</f>
+        <v>3903.51</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="39">
+        <f>H43-H44</f>
+        <v>196.48999999999978</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="27">
+        <f>SUM(L7:L47)</f>
+        <v>265.3</v>
+      </c>
+      <c r="M48" s="27">
+        <f>SUM(M7:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C13972C-2579-4A54-AEBB-44B26BB33B6E}">
+  <dimension ref="C3:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="M6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="38">
+        <v>4700</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="43">
+        <v>200</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="40"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="43">
+        <v>230</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="40"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="43">
+        <v>200</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="38"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="44">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="43">
+        <v>20.9</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="43">
+        <v>600</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="43">
+        <v>25.9</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="43">
+        <v>17.45</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="45"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="43">
+        <v>200</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="43">
+        <v>50</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="43">
+        <v>30.9</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="43">
+        <v>20.9</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="G17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="38">
+        <v>50.04</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="38">
+        <v>46.6</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="43">
+        <v>20.9</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="52">
+        <v>29.1</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="38">
+        <v>21.9</v>
+      </c>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="G20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="52">
+        <v>103.7</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="52">
+        <v>12.46</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="52">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="52">
+        <v>74.73</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="38">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="52">
+        <v>14.48</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="38">
+        <v>102.17</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="G28" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="38">
+        <v>33</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="G30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="G32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="38">
+        <v>33</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="G38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="G39" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="38">
+        <v>632.37</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+    </row>
+    <row r="41" spans="4:15" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="25"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="39">
+        <f>SUM(I6:I41)</f>
+        <v>3594.8</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="25"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="I44" s="40"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="H45" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="39">
+        <f>M51</f>
+        <v>368.19999999999993</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="H46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="39">
+        <f>E7</f>
+        <v>4700</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="H47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="39">
+        <f>(I42+I45)</f>
+        <v>3963</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="H48" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" s="39">
+        <f>I46-I47</f>
+        <v>737</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="L51" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="27">
+        <f>SUM(M7:M50)</f>
+        <v>368.19999999999993</v>
+      </c>
+      <c r="N51" s="27">
+        <f>SUM(N7:N50)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABFE6D-C9CC-404E-AA7B-641D346E9671}">
+  <dimension ref="B2:N50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,155 +6480,172 @@
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="K3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="K4" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="B4" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="F4" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="F5" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="L5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="41"/>
-      <c r="L6" s="28" t="s">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>48</v>
-      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4300</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="43">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="38">
-        <v>4200</v>
-      </c>
+      <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="43">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="41">
-        <v>19</v>
+      <c r="L7" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" s="43">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="41">
-        <v>19</v>
+      <c r="L8" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="40"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="28"/>
       <c r="G9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="43">
-        <v>200</v>
+        <v>63</v>
+      </c>
+      <c r="H9" s="44">
+        <v>70.099999999999994</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="41">
-        <v>19</v>
+      <c r="L9" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="44">
-        <v>70.099999999999994</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H10" s="43">
+        <v>600</v>
+      </c>
+      <c r="I10" s="25"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="41">
-        <v>19</v>
+      <c r="L10" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="H11" s="43">
-        <v>600</v>
-      </c>
-      <c r="I11" s="25"/>
+        <v>17.45</v>
+      </c>
       <c r="K11" s="31"/>
-      <c r="L11" s="41">
-        <v>19</v>
+      <c r="L11" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -4960,35 +6653,34 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="45"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" s="43">
-        <v>13.95</v>
+        <v>200</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="41">
-        <v>19</v>
+      <c r="L12" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H13" s="43">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="41">
-        <v>19</v>
+      <c r="L13" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -4998,14 +6690,14 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H14" s="43">
-        <v>200</v>
+        <v>97.14</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="41">
-        <v>19</v>
+      <c r="L14" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -5014,15 +6706,11 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="43">
-        <v>97.14</v>
-      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="41">
-        <v>19</v>
+      <c r="L15" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -5030,12 +6718,18 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="38">
+        <v>50.04</v>
+      </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="41">
-        <v>19</v>
+      <c r="L16" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -5044,7 +6738,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>37</v>
@@ -5053,8 +6747,8 @@
         <v>46.6</v>
       </c>
       <c r="K17" s="31"/>
-      <c r="L17" s="41">
-        <v>19</v>
+      <c r="L17" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -5063,17 +6757,17 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="52">
         <v>29.1</v>
       </c>
       <c r="K18" s="31"/>
-      <c r="L18" s="41">
-        <v>19</v>
+      <c r="L18" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -5082,17 +6776,17 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="52">
         <v>103.7</v>
       </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="41">
-        <v>19</v>
+      <c r="L19" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
@@ -5101,17 +6795,17 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="38">
-        <v>12.45</v>
+      <c r="H20" s="52">
+        <v>12.46</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="41">
-        <v>19</v>
+      <c r="L20" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -5125,12 +6819,12 @@
       <c r="G21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="52">
         <v>33.520000000000003</v>
       </c>
       <c r="K21" s="31"/>
-      <c r="L21" s="41">
-        <v>19</v>
+      <c r="L21" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -5139,17 +6833,17 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="38">
-        <v>74.72</v>
+      <c r="H22" s="52">
+        <v>74.73</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="41">
-        <v>19</v>
+      <c r="L22" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -5161,14 +6855,14 @@
         <v>64</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="38">
-        <v>78.849999999999994</v>
+        <v>61</v>
+      </c>
+      <c r="H23" s="52">
+        <v>14.48</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="41">
-        <v>19</v>
+      <c r="L23" s="38">
+        <v>18.899999999999999</v>
       </c>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -5177,18 +6871,16 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="H24" s="38">
-        <v>14.48</v>
+        <v>102.17</v>
       </c>
       <c r="K24" s="31"/>
-      <c r="L24" s="41">
-        <v>19</v>
-      </c>
+      <c r="L24" s="38"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
@@ -5196,18 +6888,16 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H25" s="38">
-        <v>102.17</v>
+        <v>41.57</v>
       </c>
       <c r="K25" s="31"/>
-      <c r="L25" s="41">
-        <v>19</v>
-      </c>
+      <c r="L25" s="38"/>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
@@ -5215,16 +6905,16 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="H26" s="38">
-        <v>41.57</v>
+        <v>33</v>
       </c>
       <c r="K26" s="31"/>
-      <c r="L26" s="41"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
@@ -5232,16 +6922,17 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H27" s="38">
-        <v>33</v>
-      </c>
+        <v>14.92</v>
+      </c>
+      <c r="I27" s="25"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="41"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
@@ -5249,13 +6940,13 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="38">
-        <v>14.92</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I28" s="25"/>
       <c r="K28" s="31"/>
@@ -5267,13 +6958,13 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H29" s="38">
-        <v>17.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="I29" s="25"/>
       <c r="K29" s="31"/>
@@ -5285,13 +6976,13 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H30" s="38">
-        <v>21.1</v>
+        <v>20.16</v>
       </c>
       <c r="I30" s="25"/>
       <c r="K30" s="31"/>
@@ -5303,13 +6994,13 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H31" s="38">
-        <v>20.16</v>
+        <v>15.02</v>
       </c>
       <c r="I31" s="25"/>
       <c r="K31" s="31"/>
@@ -5321,13 +7012,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H32" s="38">
-        <v>15.02</v>
+        <v>30.71</v>
       </c>
       <c r="I32" s="25"/>
       <c r="K32" s="31"/>
@@ -5339,13 +7030,13 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="38">
-        <v>30.71</v>
+        <v>33</v>
       </c>
       <c r="I33" s="25"/>
       <c r="K33" s="31"/>
@@ -5357,13 +7048,13 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="38">
-        <v>33</v>
+        <v>257.25</v>
       </c>
       <c r="I34" s="25"/>
       <c r="K34" s="31"/>
@@ -5375,13 +7066,13 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H35" s="38">
-        <v>257.25</v>
+        <v>96.8</v>
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="31"/>
@@ -5393,13 +7084,13 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H36" s="38">
-        <v>96.8</v>
+        <v>22.5</v>
       </c>
       <c r="I36" s="25"/>
       <c r="K36" s="31"/>
@@ -5410,37 +7101,41 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="F37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G37" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="38"/>
+        <v>120</v>
+      </c>
+      <c r="H37" s="38">
+        <v>148.16</v>
+      </c>
       <c r="I37" s="25"/>
       <c r="K37" s="31"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="47"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="38"/>
       <c r="I38" s="25"/>
       <c r="K38" s="31"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="39">
-        <f>SUM(H6:H38)</f>
-        <v>2988.2099999999996</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="25"/>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
@@ -5450,7 +7145,11 @@
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
-      <c r="H40" s="40"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>2983.58</v>
+      </c>
       <c r="I40" s="25"/>
       <c r="K40" s="31"/>
       <c r="L40" s="41"/>
@@ -5461,6 +7160,7 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="H41" s="40"/>
+      <c r="I41" s="25"/>
       <c r="K41" s="31"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
@@ -5469,13 +7169,7 @@
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
-      <c r="G42" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="39">
-        <f>L48</f>
-        <v>361</v>
-      </c>
+      <c r="H42" s="40"/>
       <c r="K42" s="31"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
@@ -5485,11 +7179,11 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H43" s="39">
-        <f>D7</f>
-        <v>4200</v>
+        <f>L50</f>
+        <v>340.19999999999993</v>
       </c>
       <c r="K43" s="31"/>
       <c r="L43" s="41"/>
@@ -5500,11 +7194,11 @@
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="39">
-        <f>(H39+H42)</f>
-        <v>3349.2099999999996</v>
+        <f>D6</f>
+        <v>4300</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="41"/>
@@ -5515,11 +7209,11 @@
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H45" s="39">
-        <f>H43-H44</f>
-        <v>850.79000000000042</v>
+        <f>(H40+H43)</f>
+        <v>3323.7799999999997</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="41"/>
@@ -5529,6 +7223,13 @@
     <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="39">
+        <f>H44-H45</f>
+        <v>976.22000000000025</v>
+      </c>
       <c r="K46" s="31"/>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -5537,7 +7238,7 @@
     <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
-      <c r="K47" s="34"/>
+      <c r="K47" s="31"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
@@ -5545,27 +7246,42 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="31"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="30"/>
+      <c r="K50" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="27">
-        <f>SUM(L7:L47)</f>
-        <v>361</v>
-      </c>
-      <c r="M48" s="27">
-        <f>SUM(M7:M47)</f>
+      <c r="L50" s="27">
+        <f>SUM(L6:L49)</f>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="M50" s="27">
+        <f>SUM(M6:M49)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="28"/>
+      <c r="N50" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5597,52 +7313,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="K3" s="60" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="E4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -6182,52 +7898,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="K3" s="60" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="E4" s="61" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="E4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
       <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
@@ -6797,52 +8513,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="K4" s="60" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="E5" s="61" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="E5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
       <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
@@ -7371,52 +9087,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -7947,52 +9663,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -8617,52 +10333,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -9318,52 +11034,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>
@@ -9985,52 +11701,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="M6" s="28" t="s">
         <v>32</v>
       </c>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12F8D0-173C-4557-9596-4E01C62273C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECBA5E3-74FD-45B2-815F-697AE33D7A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="14" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Março23" sheetId="13" r:id="rId13"/>
     <sheet name="Abril23" sheetId="14" r:id="rId14"/>
     <sheet name="Maio23" sheetId="15" r:id="rId15"/>
-    <sheet name="Planilha2" sheetId="16" r:id="rId16"/>
+    <sheet name="Junho23" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="126">
   <si>
     <t>Cartões</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>(03/18)</t>
+  </si>
+  <si>
+    <t>(02/04)</t>
+  </si>
+  <si>
+    <t>(08/24)</t>
   </si>
 </sst>
 </file>
@@ -5623,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C13972C-2579-4A54-AEBB-44B26BB33B6E}">
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6301,7 +6307,7 @@
         <v>48</v>
       </c>
       <c r="I40" s="38">
-        <v>632.37</v>
+        <v>682.37</v>
       </c>
       <c r="J40" s="25"/>
       <c r="L40" s="31"/>
@@ -6327,7 +6333,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="39">
         <f>SUM(I6:I41)</f>
-        <v>3594.8</v>
+        <v>3644.8</v>
       </c>
       <c r="J42" s="25"/>
       <c r="L42" s="31"/>
@@ -6392,7 +6398,7 @@
       </c>
       <c r="I47" s="39">
         <f>(I42+I45)</f>
-        <v>3963</v>
+        <v>4013</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="41"/>
@@ -6407,7 +6413,7 @@
       </c>
       <c r="I48" s="39">
         <f>I46-I47</f>
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="41"/>
@@ -6463,8 +6469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABFE6D-C9CC-404E-AA7B-641D346E9671}">
   <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -6676,7 +6682,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="43">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="38">
@@ -6888,7 +6894,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>37</v>
@@ -6905,7 +6911,7 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>95</v>
@@ -6922,7 +6928,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>96</v>
@@ -6940,7 +6946,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>94</v>
@@ -6958,7 +6964,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
@@ -6976,7 +6982,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
@@ -6994,7 +7000,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
@@ -7012,7 +7018,7 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>94</v>
@@ -7030,7 +7036,7 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>95</v>
@@ -7048,7 +7054,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>93</v>
@@ -7066,7 +7072,7 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>108</v>
@@ -7084,7 +7090,7 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>122</v>
@@ -7102,7 +7108,7 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>120</v>
@@ -7148,7 +7154,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="39">
         <f>SUM(H5:H39)</f>
-        <v>2983.58</v>
+        <v>3003.5800000000004</v>
       </c>
       <c r="I40" s="25"/>
       <c r="K40" s="31"/>
@@ -7198,7 +7204,7 @@
       </c>
       <c r="H44" s="39">
         <f>D6</f>
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="41"/>
@@ -7213,7 +7219,7 @@
       </c>
       <c r="H45" s="39">
         <f>(H40+H43)</f>
-        <v>3323.7799999999997</v>
+        <v>3343.78</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="41"/>
@@ -7228,7 +7234,7 @@
       </c>
       <c r="H46" s="39">
         <f>H44-H45</f>
-        <v>976.22000000000025</v>
+        <v>256.2199999999998</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="41"/>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECBA5E3-74FD-45B2-815F-697AE33D7A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1D16F-43FD-4946-B50C-68467A580E47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="17" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,8 +29,10 @@
     <sheet name="Abril23" sheetId="14" r:id="rId14"/>
     <sheet name="Maio23" sheetId="15" r:id="rId15"/>
     <sheet name="Junho23" sheetId="16" r:id="rId16"/>
+    <sheet name="Julho23" sheetId="17" r:id="rId17"/>
+    <sheet name="Agosto23" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="138">
   <si>
     <t>Cartões</t>
   </si>
@@ -111,6 +113,9 @@
     <t>Planilha orçamentária familiar</t>
   </si>
   <si>
+    <t>Marmita</t>
+  </si>
+  <si>
     <t>Receitas</t>
   </si>
   <si>
@@ -120,16 +125,16 @@
     <t>Salários</t>
   </si>
   <si>
-    <t>Renda total</t>
+    <t>Emanuel</t>
   </si>
   <si>
-    <t>Despesa total</t>
+    <t>Cartão</t>
   </si>
   <si>
     <t>Condomínio</t>
   </si>
   <si>
-    <t>Sobra/falta</t>
+    <t>Nubak</t>
   </si>
   <si>
     <t>Conta de luz</t>
@@ -138,61 +143,58 @@
     <t>Gás</t>
   </si>
   <si>
-    <t>Emanuel</t>
-  </si>
-  <si>
     <t>Internet / Cel</t>
   </si>
   <si>
     <t>HBO</t>
   </si>
   <si>
+    <t>(07/10)</t>
+  </si>
+  <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>(08/12)</t>
   </si>
   <si>
     <t>Curso</t>
   </si>
   <si>
+    <t>(03/12)</t>
+  </si>
+  <si>
     <t>Ali Express</t>
+  </si>
+  <si>
+    <t>(06/10)</t>
   </si>
   <si>
     <t>Power BI</t>
   </si>
   <si>
+    <t>(01/12)</t>
+  </si>
+  <si>
     <t>Alimentação Casa</t>
   </si>
   <si>
-    <t>Marmita</t>
+    <t>Fatura Visa / Nu Fay</t>
   </si>
   <si>
     <t>Fatura Nubank</t>
   </si>
   <si>
-    <t>(07/10)</t>
+    <t>Renda total</t>
   </si>
   <si>
-    <t>(08/12)</t>
-  </si>
-  <si>
-    <t>(03/12)</t>
-  </si>
-  <si>
-    <t>(06/10)</t>
-  </si>
-  <si>
-    <t>(01/12)</t>
+    <t>Despesa total</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Cartão</t>
-  </si>
-  <si>
-    <t>Nubak</t>
-  </si>
-  <si>
-    <t>Fatura Visa / Nu Fay</t>
+    <t>Sobra/falta</t>
   </si>
   <si>
     <t>(08/10)</t>
@@ -204,16 +206,13 @@
     <t>(04/12)</t>
   </si>
   <si>
-    <t>(02/12)</t>
-  </si>
-  <si>
-    <t>Marmita mês passado</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(02/12)</t>
   </si>
   <si>
     <t>(01/10)</t>
@@ -222,16 +221,13 @@
     <t>Chuveiro</t>
   </si>
   <si>
-    <t>(01/05)</t>
+    <t>Marmita mês passado</t>
   </si>
   <si>
-    <t>Havan</t>
+    <t>DAS</t>
   </si>
   <si>
     <t>Vale Transporte</t>
-  </si>
-  <si>
-    <t>DAS</t>
   </si>
   <si>
     <t>(09/10)</t>
@@ -246,37 +242,46 @@
     <t>(02/10)</t>
   </si>
   <si>
+    <t>(01/05)</t>
+  </si>
+  <si>
+    <t>Havan</t>
+  </si>
+  <si>
     <t>Vape Ali</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>(03/10)</t>
+    <t>Mãe</t>
   </si>
   <si>
     <t>Rafa</t>
   </si>
   <si>
+    <t>(12/12)</t>
+  </si>
+  <si>
     <t>(07/12)</t>
+  </si>
+  <si>
+    <t>(03/10)</t>
   </si>
   <si>
     <t>(03/05)</t>
   </si>
   <si>
-    <t>(12/12)</t>
-  </si>
-  <si>
-    <t>Mãe</t>
+    <t>HBO Max</t>
   </si>
   <si>
     <t>(11/12)</t>
   </si>
   <si>
-    <t>(04/05)</t>
+    <t>(04/10)</t>
   </si>
   <si>
-    <t>(04/10)</t>
+    <t>(04/05)</t>
   </si>
   <si>
     <t>(01/02)</t>
@@ -285,22 +290,22 @@
     <t>Termo</t>
   </si>
   <si>
-    <t>HBO Max</t>
-  </si>
-  <si>
     <t>Remo</t>
   </si>
   <si>
     <t>Perfume</t>
   </si>
   <si>
-    <t>(02/02)</t>
+    <t>(06/12)</t>
   </si>
   <si>
     <t>(05/10)</t>
   </si>
   <si>
-    <t>(06/12)</t>
+    <t>(02/02)</t>
+  </si>
+  <si>
+    <t>2x</t>
   </si>
   <si>
     <t>(05/05)</t>
@@ -309,13 +314,19 @@
     <t>Sobra</t>
   </si>
   <si>
+    <t>Poupança</t>
+  </si>
+  <si>
     <t>(02/05)</t>
   </si>
   <si>
-    <t>Poupança</t>
+    <t>Essencia Z</t>
   </si>
   <si>
-    <t>2x</t>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Mercado Livre</t>
   </si>
   <si>
     <t>(01/24)</t>
@@ -324,22 +335,13 @@
     <t>Notebook Acer</t>
   </si>
   <si>
-    <t>Mercado Livre</t>
-  </si>
-  <si>
-    <t>Essencia Z</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>(02/24)</t>
-  </si>
-  <si>
     <t>(01/06)</t>
   </si>
   <si>
     <t>Leroy Merlin</t>
+  </si>
+  <si>
+    <t>(02/24)</t>
   </si>
   <si>
     <t>(02/06)</t>
@@ -357,19 +359,31 @@
     <t>(04/24)</t>
   </si>
   <si>
+    <t>(01/18)</t>
+  </si>
+  <si>
+    <t>Mercado Livre / Teclado</t>
+  </si>
+  <si>
+    <t>Mercado Livre/ T</t>
+  </si>
+  <si>
+    <t>Capactor V</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
     <t>(04/06)</t>
   </si>
   <si>
     <t>(05/24)</t>
   </si>
   <si>
-    <t>Juice</t>
-  </si>
-  <si>
     <t>Celular Fay</t>
   </si>
   <si>
-    <t>Mercado Livre/ T</t>
+    <t>(02/18)</t>
   </si>
   <si>
     <t>(05/06)</t>
@@ -378,16 +392,13 @@
     <t>(06/24)</t>
   </si>
   <si>
-    <t>Capactor V</t>
+    <t>(01/08)</t>
   </si>
   <si>
-    <t>(01/18)</t>
+    <t xml:space="preserve">Presente Miriãn </t>
   </si>
   <si>
-    <t>Mercado Livre / Teclado</t>
-  </si>
-  <si>
-    <t>(02/18)</t>
+    <t>(03/18)</t>
   </si>
   <si>
     <t>(06/06)</t>
@@ -396,28 +407,55 @@
     <t>(07/24)</t>
   </si>
   <si>
-    <t>(01/08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presente Miriãn </t>
-  </si>
-  <si>
-    <t>Show</t>
-  </si>
-  <si>
     <t>(01/04)</t>
   </si>
   <si>
     <t>Rodeio</t>
   </si>
   <si>
-    <t>(03/18)</t>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>(08/24)</t>
   </si>
   <si>
     <t>(02/04)</t>
   </si>
   <si>
-    <t>(08/24)</t>
+    <t xml:space="preserve">Cafeteira </t>
+  </si>
+  <si>
+    <t>(03/08)</t>
+  </si>
+  <si>
+    <t>(04/18)</t>
+  </si>
+  <si>
+    <t>(09/24)</t>
+  </si>
+  <si>
+    <t>(03/04)</t>
+  </si>
+  <si>
+    <t>(04/08)</t>
+  </si>
+  <si>
+    <t>(05/18)</t>
+  </si>
+  <si>
+    <t>(10/24)</t>
+  </si>
+  <si>
+    <t>(04/04)</t>
+  </si>
+  <si>
+    <t>Cartão NU</t>
+  </si>
+  <si>
+    <t>Cartão NU PJ</t>
+  </si>
+  <si>
+    <t>Cartão Fay</t>
   </si>
 </sst>
 </file>
@@ -485,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,6 +919,31 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,6 +984,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1285,19 +1357,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="53" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1328,10 +1400,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1576,13 +1648,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="58">
+      <c r="E15" s="67">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1836,65 +1908,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="K4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="B5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="F5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="L6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
@@ -1902,7 +1974,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="43">
         <v>200</v>
@@ -1918,7 +1990,7 @@
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="43">
         <v>182</v>
@@ -1950,13 +2022,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="44">
         <v>70</v>
@@ -1974,7 +2046,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H11" s="43">
         <v>600</v>
@@ -1993,7 +2065,7 @@
       <c r="D12" s="38"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H12" s="43">
         <v>13.95</v>
@@ -2028,7 +2100,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="43">
         <v>198</v>
@@ -2045,7 +2117,7 @@
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" s="43">
         <v>97.14</v>
@@ -2059,10 +2131,10 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H16" s="38">
         <v>49.75</v>
@@ -2076,10 +2148,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H17" s="38">
         <v>55</v>
@@ -2096,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H18" s="38">
         <v>69.150000000000006</v>
@@ -2113,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="38">
         <v>12.99</v>
@@ -2127,7 +2199,7 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>68</v>
@@ -2161,10 +2233,10 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H22" s="38">
         <v>14.48</v>
@@ -2178,10 +2250,10 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H23" s="38">
         <v>15.96</v>
@@ -2196,10 +2268,10 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="H24" s="38">
         <v>102.17</v>
@@ -2214,10 +2286,10 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25" s="38">
         <v>41.57</v>
@@ -2232,10 +2304,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H26" s="38">
         <v>33</v>
@@ -2250,10 +2322,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" s="38">
         <v>14.92</v>
@@ -2268,7 +2340,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>94</v>
@@ -2286,7 +2358,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
@@ -2304,7 +2376,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
@@ -2322,7 +2394,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
@@ -2340,7 +2412,7 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>94</v>
@@ -2358,10 +2430,10 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H33" s="38">
         <v>33</v>
@@ -2376,10 +2448,10 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H34" s="38">
         <v>257.25</v>
@@ -2395,7 +2467,7 @@
       <c r="D35" s="30"/>
       <c r="F35" s="28"/>
       <c r="G35" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H35" s="38">
         <v>700</v>
@@ -2451,7 +2523,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H40" s="39">
         <f>L42</f>
@@ -2466,7 +2538,7 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H41" s="39">
         <f>D7</f>
@@ -2481,14 +2553,14 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H42" s="39">
         <f>(H37+H40)</f>
         <v>3461.67</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42" s="39">
         <f>SUM(L7:L41)</f>
@@ -2504,7 +2576,7 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" s="39">
         <f>H41-H42</f>
@@ -2547,65 +2619,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="B4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="F4" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
       <c r="L5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
@@ -2613,7 +2685,7 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="43">
         <v>200</v>
@@ -2629,7 +2701,7 @@
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="43">
         <v>200</v>
@@ -2661,13 +2733,13 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="38"/>
       <c r="F9" s="28"/>
       <c r="G9" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="44">
         <v>70</v>
@@ -2685,7 +2757,7 @@
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" s="43">
         <v>600</v>
@@ -2704,7 +2776,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" s="43">
         <v>13.95</v>
@@ -2740,7 +2812,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="43">
         <v>0</v>
@@ -2757,7 +2829,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="43">
         <v>97.14</v>
@@ -2786,10 +2858,10 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H16" s="38">
         <v>55</v>
@@ -2805,10 +2877,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" s="38">
         <v>69.150000000000006</v>
@@ -2824,10 +2896,10 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="38">
         <v>12.99</v>
@@ -2843,7 +2915,7 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>68</v>
@@ -2862,7 +2934,7 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>82</v>
@@ -2884,7 +2956,7 @@
         <v>78</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="38">
         <v>14.48</v>
@@ -2901,10 +2973,10 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H22" s="38">
         <v>15.96</v>
@@ -2924,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="38">
         <v>102.17</v>
@@ -2939,10 +3011,10 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" s="38">
         <v>41.57</v>
@@ -2957,10 +3029,10 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" s="38">
         <v>33</v>
@@ -2975,10 +3047,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="38">
         <v>14.92</v>
@@ -2993,7 +3065,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>94</v>
@@ -3011,7 +3083,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>94</v>
@@ -3029,7 +3101,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
@@ -3047,7 +3119,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
@@ -3065,7 +3137,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
@@ -3083,10 +3155,10 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H32" s="38">
         <v>33</v>
@@ -3104,7 +3176,7 @@
         <v>101</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H33" s="38">
         <v>257.25</v>
@@ -3120,7 +3192,7 @@
       <c r="D34" s="30"/>
       <c r="F34" s="28"/>
       <c r="G34" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H34" s="38">
         <v>255.16</v>
@@ -3176,7 +3248,7 @@
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H39" s="39">
         <f>L41</f>
@@ -3191,7 +3263,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H40" s="39">
         <f>D6</f>
@@ -3206,14 +3278,14 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H41" s="39">
         <f>(H36+H39)</f>
         <v>2950.2</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41" s="39">
         <f>SUM(L6:L40)</f>
@@ -3229,7 +3301,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" s="39">
         <f>H40-H41</f>
@@ -3272,66 +3344,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="B4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="F4" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
@@ -3339,7 +3411,7 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="43">
         <v>200</v>
@@ -3355,7 +3427,7 @@
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="43">
         <v>200</v>
@@ -3387,13 +3459,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="38"/>
       <c r="F9" s="28"/>
       <c r="G9" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="44"/>
       <c r="K9" s="31"/>
@@ -3409,7 +3481,7 @@
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" s="43">
         <v>600</v>
@@ -3428,7 +3500,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" s="43">
         <v>13.95</v>
@@ -3463,7 +3535,7 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="43">
         <v>100</v>
@@ -3480,7 +3552,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="43">
         <v>97.14</v>
@@ -3509,10 +3581,10 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H16" s="38">
         <v>55</v>
@@ -3526,10 +3598,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" s="38">
         <v>69.150000000000006</v>
@@ -3546,7 +3618,7 @@
         <v>102</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="38">
         <v>12.99</v>
@@ -3577,7 +3649,7 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>82</v>
@@ -3597,7 +3669,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="38">
         <v>14.48</v>
@@ -3611,10 +3683,10 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H22" s="38">
         <v>15.96</v>
@@ -3632,7 +3704,7 @@
         <v>103</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="38">
         <v>102.17</v>
@@ -3647,10 +3719,10 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" s="38">
         <v>41.57</v>
@@ -3668,7 +3740,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" s="38">
         <v>33</v>
@@ -3686,7 +3758,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="38">
         <v>14.92</v>
@@ -3794,7 +3866,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H32" s="38">
         <v>33</v>
@@ -3812,7 +3884,7 @@
         <v>104</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H33" s="38">
         <v>257.25</v>
@@ -3828,7 +3900,7 @@
       <c r="D34" s="30"/>
       <c r="F34" s="28"/>
       <c r="G34" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H34" s="38">
         <v>1140.83</v>
@@ -3884,7 +3956,7 @@
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H39" s="39">
         <f>L41</f>
@@ -3899,7 +3971,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H40" s="39">
         <f>D6</f>
@@ -3914,14 +3986,14 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H41" s="39">
         <f>(H36+H39)</f>
         <v>3842.96</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41" s="39">
         <f>SUM(L6:L40)</f>
@@ -3937,7 +4009,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" s="39">
         <f>H40-H41</f>
@@ -3980,69 +4052,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="K4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="B5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="F5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
@@ -4050,7 +4122,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="43">
         <v>200</v>
@@ -4067,7 +4139,7 @@
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="43">
         <v>230</v>
@@ -4101,13 +4173,13 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="44">
         <v>70</v>
@@ -4126,7 +4198,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H11" s="43">
         <v>600</v>
@@ -4146,7 +4218,7 @@
       <c r="D12" s="38"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H12" s="43">
         <v>13.95</v>
@@ -4183,7 +4255,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="43"/>
       <c r="K14" s="31"/>
@@ -4199,7 +4271,7 @@
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" s="43">
         <v>97.14</v>
@@ -4230,10 +4302,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" s="38">
         <v>46.6</v>
@@ -4250,10 +4322,10 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H18" s="38">
         <v>29.1</v>
@@ -4270,10 +4342,10 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="38">
         <v>103.7</v>
@@ -4290,10 +4362,10 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="38">
         <v>12.45</v>
@@ -4310,10 +4382,10 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="38">
         <v>55</v>
@@ -4330,10 +4402,10 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22" s="38">
         <v>69.150000000000006</v>
@@ -4350,7 +4422,7 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>68</v>
@@ -4370,10 +4442,10 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H24" s="38">
         <v>74.72</v>
@@ -4406,10 +4478,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H26" s="38">
         <v>14.48</v>
@@ -4424,10 +4496,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="38">
         <v>102.17</v>
@@ -4445,7 +4517,7 @@
         <v>53</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28" s="38">
         <v>41.57</v>
@@ -4461,10 +4533,10 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H29" s="38">
         <v>33</v>
@@ -4480,10 +4552,10 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" s="38">
         <v>14.92</v>
@@ -4499,7 +4571,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
@@ -4518,7 +4590,7 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>94</v>
@@ -4537,7 +4609,7 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>94</v>
@@ -4555,7 +4627,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>94</v>
@@ -4573,7 +4645,7 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>94</v>
@@ -4591,10 +4663,10 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H36" s="38">
         <v>33</v>
@@ -4609,10 +4681,10 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H37" s="38">
         <v>257.25</v>
@@ -4627,10 +4699,10 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H38" s="38">
         <v>96.8</v>
@@ -4646,7 +4718,7 @@
       <c r="D39" s="30"/>
       <c r="F39" s="28"/>
       <c r="G39" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H39" s="38">
         <v>1150</v>
@@ -4707,7 +4779,7 @@
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H44" s="39">
         <f>SUM(L48)</f>
@@ -4723,7 +4795,7 @@
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H45" s="39">
         <f>D7</f>
@@ -4739,7 +4811,7 @@
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="G46" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H46" s="39">
         <f>(H41+H44)</f>
@@ -4755,7 +4827,7 @@
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="G47" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" s="39">
         <f>H45-H46</f>
@@ -4771,7 +4843,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48" s="27">
         <f>SUM(L7:L47)</f>
@@ -4828,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07543B42-7DB5-46C9-BD91-2D1F24F4A79B}">
   <dimension ref="B3:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R28" sqref="R28:V53"/>
     </sheetView>
   </sheetViews>
@@ -4847,65 +4919,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="K4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="B5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="F5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="L6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
@@ -4913,7 +4985,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="43">
         <v>200</v>
@@ -4929,7 +5001,7 @@
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="43">
         <v>230</v>
@@ -4961,13 +5033,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="44">
         <v>70.099999999999994</v>
@@ -4985,7 +5057,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H11" s="43">
         <v>600</v>
@@ -5004,7 +5076,7 @@
       <c r="D12" s="38"/>
       <c r="F12" s="28"/>
       <c r="G12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H12" s="43">
         <v>13.95</v>
@@ -5037,7 +5109,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="43">
         <v>200</v>
@@ -5054,7 +5126,7 @@
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" s="43">
         <v>97.14</v>
@@ -5083,10 +5155,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" s="38">
         <v>46.6</v>
@@ -5102,10 +5174,10 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H18" s="38">
         <v>29.1</v>
@@ -5121,10 +5193,10 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="38">
         <v>103.7</v>
@@ -5140,10 +5212,10 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="38">
         <v>12.45</v>
@@ -5159,7 +5231,7 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>68</v>
@@ -5176,10 +5248,10 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H22" s="38">
         <v>74.72</v>
@@ -5193,7 +5265,7 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>82</v>
@@ -5210,10 +5282,10 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H24" s="38">
         <v>14.48</v>
@@ -5227,10 +5299,10 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="38">
         <v>102.17</v>
@@ -5244,10 +5316,10 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26" s="38">
         <v>41.57</v>
@@ -5261,10 +5333,10 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H27" s="38">
         <v>33</v>
@@ -5278,10 +5350,10 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H28" s="38">
         <v>14.92</v>
@@ -5296,7 +5368,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
@@ -5314,7 +5386,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
@@ -5332,7 +5404,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>94</v>
@@ -5352,7 +5424,7 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>94</v>
@@ -5372,7 +5444,7 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>94</v>
@@ -5392,10 +5464,10 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H34" s="38">
         <v>33</v>
@@ -5412,10 +5484,10 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H35" s="38">
         <v>257.25</v>
@@ -5435,7 +5507,7 @@
         <v>101</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H36" s="38">
         <v>96.8</v>
@@ -5453,7 +5525,7 @@
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
       <c r="G37" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H37" s="38">
         <v>950</v>
@@ -5523,7 +5595,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H42" s="39">
         <f>L48</f>
@@ -5538,7 +5610,7 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H43" s="39">
         <f>D7</f>
@@ -5553,7 +5625,7 @@
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H44" s="39">
         <f>(H39+H42)</f>
@@ -5568,7 +5640,7 @@
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" s="39">
         <f>H43-H44</f>
@@ -5599,7 +5671,7 @@
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48" s="27">
         <f>SUM(L7:L47)</f>
@@ -5647,65 +5719,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="C6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
@@ -5713,7 +5785,7 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="43">
         <v>200</v>
@@ -5729,7 +5801,7 @@
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="43">
         <v>230</v>
@@ -5761,13 +5833,13 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="38"/>
       <c r="G10" s="28"/>
       <c r="H10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="44">
         <v>70.099999999999994</v>
@@ -5785,7 +5857,7 @@
       <c r="E11" s="38"/>
       <c r="G11" s="28"/>
       <c r="H11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" s="43">
         <v>600</v>
@@ -5804,7 +5876,7 @@
       <c r="E12" s="38"/>
       <c r="G12" s="28"/>
       <c r="H12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="43">
         <v>17.45</v>
@@ -5839,7 +5911,7 @@
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
       <c r="H14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="43">
         <v>50</v>
@@ -5856,7 +5928,7 @@
       <c r="E15" s="30"/>
       <c r="G15" s="28"/>
       <c r="H15" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" s="43">
         <v>97.14</v>
@@ -5885,10 +5957,10 @@
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I17" s="38">
         <v>50.04</v>
@@ -5904,10 +5976,10 @@
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I18" s="38">
         <v>46.6</v>
@@ -5923,10 +5995,10 @@
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I19" s="52">
         <v>29.1</v>
@@ -5942,10 +6014,10 @@
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I20" s="52">
         <v>103.7</v>
@@ -5961,10 +6033,10 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I21" s="52">
         <v>12.46</v>
@@ -5980,7 +6052,7 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>68</v>
@@ -5999,10 +6071,10 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I23" s="52">
         <v>74.73</v>
@@ -6037,10 +6109,10 @@
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I25" s="52">
         <v>14.48</v>
@@ -6054,10 +6126,10 @@
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I26" s="38">
         <v>102.17</v>
@@ -6071,10 +6143,10 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I27" s="38">
         <v>41.57</v>
@@ -6088,10 +6160,10 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="G28" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I28" s="38">
         <v>33</v>
@@ -6105,10 +6177,10 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="G29" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I29" s="38">
         <v>14.92</v>
@@ -6123,7 +6195,7 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="G30" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>94</v>
@@ -6141,7 +6213,7 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="G31" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>94</v>
@@ -6159,7 +6231,7 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="G32" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>94</v>
@@ -6177,7 +6249,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="G33" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>94</v>
@@ -6195,7 +6267,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="G34" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>94</v>
@@ -6213,10 +6285,10 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="G35" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I35" s="38">
         <v>33</v>
@@ -6231,10 +6303,10 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="G36" s="28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I36" s="38">
         <v>257.25</v>
@@ -6252,7 +6324,7 @@
         <v>104</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I37" s="38">
         <v>96.8</v>
@@ -6285,10 +6357,10 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="G39" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I39" s="38">
         <v>148.16</v>
@@ -6304,7 +6376,7 @@
       <c r="E40" s="30"/>
       <c r="G40" s="28"/>
       <c r="H40" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I40" s="38">
         <v>682.37</v>
@@ -6364,7 +6436,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="H45" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I45" s="39">
         <f>M51</f>
@@ -6379,7 +6451,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="H46" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I46" s="39">
         <f>E7</f>
@@ -6394,7 +6466,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="H47" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I47" s="39">
         <f>(I42+I45)</f>
@@ -6409,7 +6481,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="H48" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I48" s="39">
         <f>I46-I47</f>
@@ -6440,7 +6512,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="L51" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M51" s="27">
         <f>SUM(M7:M50)</f>
@@ -6467,16 +6539,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABFE6D-C9CC-404E-AA7B-641D346E9671}">
-  <dimension ref="B2:N50"/>
+  <dimension ref="B2:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
@@ -6487,81 +6559,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="B4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="F4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
       <c r="L5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="43">
         <v>200</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="38">
-        <v>18.899999999999999</v>
-      </c>
+      <c r="L6" s="38"/>
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
     </row>
@@ -6569,14 +6639,14 @@
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="43">
         <v>230</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="38">
-        <v>18.899999999999999</v>
+      <c r="L7" s="44">
+        <v>20.9</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
@@ -6593,27 +6663,27 @@
         <v>200</v>
       </c>
       <c r="K8" s="31"/>
-      <c r="L8" s="38">
-        <v>18.899999999999999</v>
+      <c r="L8" s="44">
+        <v>25</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="38"/>
       <c r="F9" s="28"/>
       <c r="G9" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="44">
         <v>70.099999999999994</v>
       </c>
       <c r="K9" s="31"/>
-      <c r="L9" s="38">
+      <c r="L9" s="44">
         <v>18.899999999999999</v>
       </c>
       <c r="M9" s="41"/>
@@ -6625,15 +6695,15 @@
       <c r="D10" s="38"/>
       <c r="F10" s="28"/>
       <c r="G10" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" s="43">
         <v>600</v>
       </c>
       <c r="I10" s="25"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="38">
-        <v>18.899999999999999</v>
+      <c r="L10" s="44">
+        <v>24</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -6644,7 +6714,7 @@
       <c r="D11" s="38"/>
       <c r="F11" s="28"/>
       <c r="G11" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" s="43">
         <v>17.45</v>
@@ -6679,10 +6749,10 @@
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
       <c r="G13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="43">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="38">
@@ -6696,7 +6766,7 @@
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="43">
         <v>97.14</v>
@@ -6725,10 +6795,10 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="38">
         <v>50.04</v>
@@ -6744,10 +6814,10 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" s="38">
         <v>46.6</v>
@@ -6763,10 +6833,10 @@
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H18" s="52">
         <v>29.1</v>
@@ -6782,10 +6852,10 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="52">
         <v>103.7</v>
@@ -6801,10 +6871,10 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="52">
         <v>12.46</v>
@@ -6820,18 +6890,16 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="H21" s="52">
-        <v>33.520000000000003</v>
+        <v>74.73</v>
       </c>
       <c r="K21" s="31"/>
-      <c r="L21" s="38">
-        <v>18.899999999999999</v>
-      </c>
+      <c r="L21" s="38"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
@@ -6839,18 +6907,16 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H22" s="52">
-        <v>74.73</v>
+        <v>14.48</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="38">
-        <v>18.899999999999999</v>
-      </c>
+      <c r="L22" s="38"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
@@ -6858,18 +6924,16 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="52">
-        <v>14.48</v>
+        <v>40</v>
+      </c>
+      <c r="H23" s="38">
+        <v>41.57</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="38">
-        <v>18.899999999999999</v>
-      </c>
+      <c r="L23" s="38"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
@@ -6877,13 +6941,13 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H24" s="38">
-        <v>102.17</v>
+        <v>33</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="38"/>
@@ -6894,14 +6958,15 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="H25" s="38">
-        <v>41.57</v>
-      </c>
+        <v>14.92</v>
+      </c>
+      <c r="I25" s="25"/>
       <c r="K25" s="31"/>
       <c r="L25" s="38"/>
       <c r="M25" s="41"/>
@@ -6911,14 +6976,15 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="38">
-        <v>33</v>
-      </c>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I26" s="25"/>
       <c r="K26" s="31"/>
       <c r="L26" s="38"/>
       <c r="M26" s="41"/>
@@ -6928,13 +6994,13 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H27" s="38">
-        <v>14.92</v>
+        <v>21.1</v>
       </c>
       <c r="I27" s="25"/>
       <c r="K27" s="31"/>
@@ -6946,13 +7012,13 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H28" s="38">
-        <v>17.899999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="I28" s="25"/>
       <c r="K28" s="31"/>
@@ -6964,13 +7030,13 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H29" s="38">
-        <v>21.1</v>
+        <v>15.02</v>
       </c>
       <c r="I29" s="25"/>
       <c r="K29" s="31"/>
@@ -6982,13 +7048,13 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H30" s="38">
-        <v>20.16</v>
+        <v>30.71</v>
       </c>
       <c r="I30" s="25"/>
       <c r="K30" s="31"/>
@@ -7000,13 +7066,13 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="38">
-        <v>15.02</v>
+        <v>33</v>
       </c>
       <c r="I31" s="25"/>
       <c r="K31" s="31"/>
@@ -7018,13 +7084,13 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H32" s="38">
-        <v>30.71</v>
+        <v>257.25</v>
       </c>
       <c r="I32" s="25"/>
       <c r="K32" s="31"/>
@@ -7032,17 +7098,17 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H33" s="38">
-        <v>33</v>
+        <v>96.8</v>
       </c>
       <c r="I33" s="25"/>
       <c r="K33" s="31"/>
@@ -7050,17 +7116,17 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
         <v>125</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H34" s="38">
-        <v>257.25</v>
+        <v>22.5</v>
       </c>
       <c r="I34" s="25"/>
       <c r="K34" s="31"/>
@@ -7068,17 +7134,17 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H35" s="38">
-        <v>96.8</v>
+        <v>148.16</v>
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="31"/>
@@ -7086,17 +7152,17 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H36" s="38">
-        <v>22.5</v>
+        <v>97.9</v>
       </c>
       <c r="I36" s="25"/>
       <c r="K36" s="31"/>
@@ -7104,17 +7170,15 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="F37" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="F37" s="28"/>
       <c r="G37" s="24" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H37" s="38">
-        <v>148.16</v>
+        <v>496.26</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="31"/>
@@ -7122,126 +7186,121 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="38"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="25"/>
       <c r="K38" s="31"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="47"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="39">
+        <f>SUM(H5:H38)</f>
+        <v>3446.05</v>
+      </c>
       <c r="I39" s="25"/>
       <c r="K39" s="31"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="39">
-        <f>SUM(H5:H39)</f>
-        <v>3003.5800000000004</v>
-      </c>
+      <c r="H40" s="40"/>
       <c r="I40" s="25"/>
       <c r="K40" s="31"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="Q40" s="38"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="H41" s="40"/>
-      <c r="I41" s="25"/>
       <c r="K41" s="31"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
-      <c r="H42" s="40"/>
+      <c r="G42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="39">
+        <f>L51</f>
+        <v>277.8</v>
+      </c>
       <c r="K42" s="31"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H43" s="39">
-        <f>L50</f>
-        <v>340.19999999999993</v>
+        <f>D6</f>
+        <v>4200</v>
       </c>
       <c r="K43" s="31"/>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H44" s="39">
-        <f>D6</f>
-        <v>3600</v>
+        <f>(H39+H42)</f>
+        <v>3723.8500000000004</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H45" s="39">
-        <f>(H40+H43)</f>
-        <v>3343.78</v>
+        <f>H43-H44</f>
+        <v>476.14999999999964</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
-      <c r="G46" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="39">
-        <f>H44-H45</f>
-        <v>256.2199999999998</v>
-      </c>
       <c r="K46" s="31"/>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="K47" s="31"/>
@@ -7249,7 +7308,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="31"/>
@@ -7260,25 +7319,32 @@
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
-      <c r="K49" s="34"/>
+      <c r="K49" s="31"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
-      <c r="K50" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="27">
-        <f>SUM(L6:L49)</f>
-        <v>340.19999999999993</v>
-      </c>
-      <c r="M50" s="27">
-        <f>SUM(M6:M49)</f>
+      <c r="K50" s="34"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="30"/>
+      <c r="K51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" s="27">
+        <f>SUM(L6:L50)</f>
+        <v>277.8</v>
+      </c>
+      <c r="M51" s="27">
+        <f>SUM(M6:M50)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="28"/>
+      <c r="N51" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7290,6 +7356,1543 @@
     <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FDE995-C67A-4921-9152-CFD72CADAA2D}">
+  <dimension ref="B2:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="F4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="L5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4700</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="43">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="43">
+        <v>230</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="44">
+        <v>38.9</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="44">
+        <v>24</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="44">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="43">
+        <v>600</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="43">
+        <v>17.45</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="45"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="43">
+        <v>100</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="43">
+        <v>150</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="38">
+        <v>50.04</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="38">
+        <v>46.6</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="52">
+        <v>29.1</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="52">
+        <v>103.7</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="52">
+        <v>12.46</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="52">
+        <v>74.73</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="52">
+        <v>14.48</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="38">
+        <v>33</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="W25" s="54"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="38">
+        <v>33</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="38">
+        <v>135.72</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="39">
+        <f>SUM(H5:H38)</f>
+        <v>2981.5099999999998</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="25"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="39">
+        <f>L51</f>
+        <v>384.19999999999987</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="39">
+        <f>D6</f>
+        <v>4700</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="39">
+        <f>(H39+H42)</f>
+        <v>3365.7099999999996</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="39">
+        <f>H43-H44</f>
+        <v>1334.2900000000004</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="30"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="30"/>
+      <c r="K51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" s="27">
+        <f>SUM(L6:L50)</f>
+        <v>384.19999999999987</v>
+      </c>
+      <c r="M51" s="27">
+        <f>SUM(M6:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC6ACC-3F77-435C-9532-8E83CBFCF243}">
+  <dimension ref="A2:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="L3" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="F4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="L5" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4800</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="60">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60">
+        <v>230</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="60">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="60">
+        <v>17.45</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60">
+        <v>200</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60">
+        <v>150</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="60">
+        <v>97.14</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="38">
+        <v>50.04</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="41">
+        <v>46.6</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="41">
+        <v>103.7</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="58"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="41">
+        <v>12.46</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="41">
+        <v>74.73</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="58"/>
+    </row>
+    <row r="21" spans="3:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="41"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="58"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="41">
+        <v>41.57</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="58"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="38">
+        <v>33</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="58"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="58"/>
+      <c r="U24" s="54"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="58"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="58"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="57"/>
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="38">
+        <v>33</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="60">
+        <v>99.9</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="60">
+        <v>705.75</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="60">
+        <v>641.6</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="3:12" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="25"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>3808.5600000000004</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="57"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="25"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="57"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="57"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="39">
+        <f>L52</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="57"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="39">
+        <f>D6</f>
+        <v>4800</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="57"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="39">
+        <f>(H40+H43)</f>
+        <v>3808.5600000000004</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="57"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="39">
+        <f>H44-H45</f>
+        <v>991.4399999999996</v>
+      </c>
+      <c r="K46" s="31"/>
+      <c r="L46" s="57"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="57"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="57"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="57"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C51" s="30"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="57"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52" s="30"/>
+      <c r="K52" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="59">
+        <f>SUM(L6:L51)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7319,65 +8922,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="E4" s="63" t="s">
+      <c r="A4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="E4" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="L5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="23">
@@ -7385,7 +8988,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="26">
         <v>200</v>
@@ -7400,13 +9003,13 @@
         <v>14</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="28"/>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26">
         <v>203.97</v>
@@ -7421,13 +9024,13 @@
         <v>14</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="26">
         <v>0</v>
@@ -7443,7 +9046,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -7496,10 +9099,10 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="E11" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26">
         <v>38.9</v>
@@ -7523,10 +9126,10 @@
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="E12" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="26">
         <v>33.81</v>
@@ -7548,10 +9151,10 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="E13" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G13" s="26">
         <v>49.75</v>
@@ -7572,10 +9175,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G14" s="26">
         <v>194.56</v>
@@ -7596,10 +9199,10 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="26">
         <v>107.9</v>
@@ -7689,7 +9292,7 @@
       <c r="C20" s="30"/>
       <c r="E20" s="28"/>
       <c r="F20" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G20" s="26">
         <v>100</v>
@@ -7711,7 +9314,7 @@
       <c r="C21" s="30"/>
       <c r="E21" s="28"/>
       <c r="F21" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G21" s="26">
         <v>510.33</v>
@@ -7736,7 +9339,7 @@
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
       <c r="F22" s="24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G22" s="26">
         <v>83.42</v>
@@ -7803,7 +9406,7 @@
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G26" s="27">
         <f>SUM(L28)</f>
@@ -7818,7 +9421,7 @@
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G27" s="27">
         <f>C6</f>
@@ -7833,14 +9436,14 @@
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G28" s="27">
         <f>(G23+G26)</f>
         <v>1955.5900000000001</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28" s="27">
         <f>SUM(L6:L27)</f>
@@ -7856,7 +9459,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G29" s="27">
         <f>G27-G28</f>
@@ -7904,65 +9507,65 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="K3" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="E4" s="63" t="s">
+      <c r="A4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="E4" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="L5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="23">
@@ -7970,7 +9573,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="26">
         <v>200</v>
@@ -7991,7 +9594,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E7" s="28"/>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26">
         <v>157.1</v>
@@ -8012,7 +9615,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="26">
         <v>0</v>
@@ -8083,7 +9686,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26">
         <v>38.9</v>
@@ -8110,7 +9713,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="26">
         <v>33.81</v>
@@ -8134,7 +9737,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G13" s="26">
         <v>49.75</v>
@@ -8149,10 +9752,10 @@
         <v>14</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T13" s="30"/>
     </row>
@@ -8160,10 +9763,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="G14" s="26">
         <v>194.56</v>
@@ -8176,7 +9779,7 @@
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S14" s="30"/>
     </row>
@@ -8184,10 +9787,10 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="26">
         <v>68.989999999999995</v>
@@ -8200,7 +9803,7 @@
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T15" s="30"/>
     </row>
@@ -8208,10 +9811,10 @@
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="E16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="G16" s="26">
         <v>12.99</v>
@@ -8226,7 +9829,7 @@
         <v>14</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T16" s="30"/>
     </row>
@@ -8244,7 +9847,7 @@
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T17" s="30"/>
     </row>
@@ -8264,7 +9867,7 @@
         <v>14</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="30"/>
     </row>
@@ -8284,7 +9887,7 @@
         <v>14</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T19" s="30"/>
     </row>
@@ -8293,7 +9896,7 @@
       <c r="C20" s="30"/>
       <c r="E20" s="28"/>
       <c r="F20" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G20" s="32">
         <v>200</v>
@@ -8306,7 +9909,7 @@
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T20" s="30"/>
     </row>
@@ -8315,7 +9918,7 @@
       <c r="C21" s="30"/>
       <c r="E21" s="28"/>
       <c r="F21" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26">
         <v>423.22</v>
@@ -8331,7 +9934,7 @@
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T21" s="30"/>
     </row>
@@ -8340,7 +9943,7 @@
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
       <c r="F22" s="24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G22" s="32">
         <v>28</v>
@@ -8356,7 +9959,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T22" s="30"/>
     </row>
@@ -8379,7 +9982,7 @@
         <v>14</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T23" s="30"/>
     </row>
@@ -8394,7 +9997,7 @@
       </c>
       <c r="M24" s="33"/>
       <c r="N24" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T24" s="30"/>
     </row>
@@ -8413,7 +10016,7 @@
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="F26" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G26" s="27">
         <f>SUM(L29)</f>
@@ -8431,7 +10034,7 @@
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="F27" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G27" s="27">
         <f>C6</f>
@@ -8448,7 +10051,7 @@
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G28" s="27">
         <f>(G23+G26)</f>
@@ -8463,14 +10066,14 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G29" s="27">
         <f>G27-G28</f>
         <v>465.73</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29" s="27">
         <f>SUM(L6:L28)</f>
@@ -8519,65 +10122,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="K4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="A5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="E5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="A6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="L6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="23">
@@ -8585,7 +10188,7 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="26">
         <v>200</v>
@@ -8598,13 +10201,13 @@
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="26">
         <v>166</v>
@@ -8619,7 +10222,7 @@
         <v>14</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8641,7 +10244,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="28"/>
       <c r="F10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="26">
         <v>70</v>
@@ -8673,7 +10276,7 @@
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8681,7 +10284,7 @@
       <c r="C12" s="30"/>
       <c r="E12" s="28"/>
       <c r="F12" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="26">
         <v>150</v>
@@ -8695,17 +10298,17 @@
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="E13" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="26">
         <v>38.9</v>
@@ -8718,17 +10321,17 @@
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="26">
         <v>33.81</v>
@@ -8744,10 +10347,10 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="26">
         <v>49.75</v>
@@ -8760,7 +10363,7 @@
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8770,7 +10373,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G16" s="26">
         <v>194.56</v>
@@ -8783,17 +10386,17 @@
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="E17" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17" s="26">
         <v>68.989999999999995</v>
@@ -8806,17 +10409,17 @@
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="E18" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="26">
         <v>12.99</v>
@@ -8832,10 +10435,10 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="E19" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G19" s="26">
         <v>61.98</v>
@@ -8848,7 +10451,7 @@
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P19" s="26"/>
     </row>
@@ -8856,7 +10459,7 @@
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="E20" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>68</v>
@@ -8872,7 +10475,7 @@
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -8893,7 +10496,7 @@
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
       <c r="F22" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22" s="32">
         <v>200</v>
@@ -8910,7 +10513,7 @@
       <c r="C23" s="30"/>
       <c r="E23" s="28"/>
       <c r="F23" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26">
         <v>349.49</v>
@@ -8924,7 +10527,7 @@
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -8932,7 +10535,7 @@
       <c r="C24" s="30"/>
       <c r="E24" s="28"/>
       <c r="F24" s="24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="25"/>
@@ -8989,7 +10592,7 @@
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G28" s="27">
         <f>SUM(L30)</f>
@@ -9008,7 +10611,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G29" s="27">
         <f>C7</f>
@@ -9023,14 +10626,14 @@
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="F30" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G30" s="27">
         <f>(G25+G28)</f>
         <v>2059.9300000000003</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30" s="27">
         <f>SUM(L7:L29)</f>
@@ -9046,7 +10649,7 @@
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="F31" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G31" s="27">
         <f>G29-G30</f>
@@ -9093,65 +10696,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="B5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="F5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="38">
@@ -9159,7 +10762,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="37">
         <v>200</v>
@@ -9177,7 +10780,7 @@
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="38">
         <v>168</v>
@@ -9214,7 +10817,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="38">
@@ -9222,7 +10825,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="37">
         <v>70</v>
@@ -9247,7 +10850,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="37">
         <v>200</v>
@@ -9261,7 +10864,7 @@
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -9269,10 +10872,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="38"/>
       <c r="F12" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="38">
         <v>33.81</v>
@@ -9285,17 +10888,17 @@
       </c>
       <c r="N12" s="33"/>
       <c r="O12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H13" s="38">
         <v>49.75</v>
@@ -9308,17 +10911,17 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="38">
         <v>194.56</v>
@@ -9331,7 +10934,7 @@
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -9341,7 +10944,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H15" s="38">
         <v>68.989999999999995</v>
@@ -9354,17 +10957,17 @@
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="38">
         <v>12.99</v>
@@ -9377,17 +10980,17 @@
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H17" s="38">
         <v>61.98</v>
@@ -9400,14 +11003,14 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>68</v>
@@ -9423,7 +11026,7 @@
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
@@ -9440,7 +11043,7 @@
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
@@ -9448,7 +11051,7 @@
       <c r="D20" s="30"/>
       <c r="F20" s="28"/>
       <c r="G20" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H20" s="37">
         <v>200</v>
@@ -9461,7 +11064,7 @@
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
@@ -9469,7 +11072,7 @@
       <c r="D21" s="30"/>
       <c r="F21" s="28"/>
       <c r="G21" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H21" s="38">
         <v>247.86</v>
@@ -9544,7 +11147,7 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="G26" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H26" s="39">
         <f>SUM(M30)</f>
@@ -9563,7 +11166,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="G27" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H27" s="39">
         <f>D7</f>
@@ -9582,7 +11185,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="G28" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H28" s="39">
         <f>(H23+H26)</f>
@@ -9597,7 +11200,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="G29" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H29" s="39">
         <f>H27-H28</f>
@@ -9612,7 +11215,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="L30" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M30" s="39">
         <f>SUM(M7:M29)</f>
@@ -9669,65 +11272,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="C6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
@@ -9735,7 +11338,7 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="37">
         <v>200</v>
@@ -9757,7 +11360,7 @@
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="37">
         <v>169</v>
@@ -9801,7 +11404,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="38">
@@ -9809,7 +11412,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="37">
         <v>70</v>
@@ -9835,7 +11438,7 @@
       <c r="E11" s="38"/>
       <c r="G11" s="28"/>
       <c r="H11" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" s="37">
         <v>500</v>
@@ -9860,7 +11463,7 @@
       <c r="E12" s="38"/>
       <c r="G12" s="28"/>
       <c r="H12" s="24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="37">
         <v>13.95</v>
@@ -9883,7 +11486,7 @@
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
       <c r="H13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="37">
         <v>200</v>
@@ -9905,10 +11508,10 @@
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="38">
         <v>49.75</v>
@@ -9930,10 +11533,10 @@
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" s="38">
         <v>194.56</v>
@@ -9955,10 +11558,10 @@
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" s="38">
         <v>68.989999999999995</v>
@@ -9983,7 +11586,7 @@
         <v>78</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="38">
         <v>12.99</v>
@@ -10005,10 +11608,10 @@
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I18" s="38">
         <v>61.98</v>
@@ -10030,7 +11633,7 @@
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>68</v>
@@ -10055,10 +11658,10 @@
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="38">
         <v>39.729999999999997</v>
@@ -10081,7 +11684,7 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>82</v>
@@ -10107,7 +11710,7 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>83</v>
@@ -10134,7 +11737,7 @@
       <c r="E23" s="30"/>
       <c r="G23" s="28"/>
       <c r="H23" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I23" s="38">
         <v>257</v>
@@ -10230,7 +11833,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="H28" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I28" s="39">
         <f>SUM(N30)</f>
@@ -10251,7 +11854,7 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="H29" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I29" s="39">
         <f>E7</f>
@@ -10272,14 +11875,14 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I30" s="39">
         <f>(I25+I28)</f>
         <v>2161.6800000000003</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M30" s="39">
         <f>SUM(M7:M29)</f>
@@ -10295,7 +11898,7 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I31" s="39">
         <f>I29-I30</f>
@@ -10339,65 +11942,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="C6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
@@ -10405,7 +12008,7 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="37">
         <v>200</v>
@@ -10427,7 +12030,7 @@
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="37">
         <v>170</v>
@@ -10471,7 +12074,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="38">
@@ -10479,7 +12082,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="37">
         <v>70</v>
@@ -10505,7 +12108,7 @@
       <c r="E11" s="38"/>
       <c r="G11" s="28"/>
       <c r="H11" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" s="37">
         <v>500</v>
@@ -10530,7 +12133,7 @@
       <c r="E12" s="38"/>
       <c r="G12" s="28"/>
       <c r="H12" s="24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="37">
         <v>13.95</v>
@@ -10553,7 +12156,7 @@
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
       <c r="H13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="37"/>
       <c r="L13" s="31">
@@ -10576,7 +12179,7 @@
         <v>52</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="38">
         <v>49.75</v>
@@ -10598,10 +12201,10 @@
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" s="38">
         <v>194.56</v>
@@ -10623,10 +12226,10 @@
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" s="38">
         <v>68.989999999999995</v>
@@ -10651,7 +12254,7 @@
         <v>85</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="38">
         <v>12.99</v>
@@ -10673,10 +12276,10 @@
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I18" s="38">
         <v>61.98</v>
@@ -10723,10 +12326,10 @@
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="38">
         <v>39.729999999999997</v>
@@ -10748,7 +12351,7 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>82</v>
@@ -10774,10 +12377,10 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I22" s="38">
         <v>14.48</v>
@@ -10792,10 +12395,10 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I23" s="38">
         <v>15.96</v>
@@ -10810,7 +12413,7 @@
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>83</v>
@@ -10837,7 +12440,7 @@
       <c r="E25" s="30"/>
       <c r="G25" s="28"/>
       <c r="H25" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I25" s="38">
         <v>500</v>
@@ -10933,7 +12536,7 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I30" s="39">
         <f>SUM(N32)</f>
@@ -10954,7 +12557,7 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I31" s="39">
         <f>E7</f>
@@ -10975,14 +12578,14 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="H32" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I32" s="39">
         <f>(I27+I30)</f>
         <v>2236.12</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M32" s="39">
         <f>SUM(M7:M31)</f>
@@ -10998,7 +12601,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="H33" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I33" s="39">
         <f>I31-I32</f>
@@ -11040,65 +12643,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="C6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
@@ -11106,7 +12709,7 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="43">
         <v>200</v>
@@ -11128,7 +12731,7 @@
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="43">
         <v>211</v>
@@ -11172,19 +12775,19 @@
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="38"/>
       <c r="G10" s="28"/>
       <c r="H10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="43">
         <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L10" s="31">
         <v>44748</v>
@@ -11205,7 +12808,7 @@
       <c r="E11" s="38"/>
       <c r="G11" s="28"/>
       <c r="H11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" s="43">
         <v>500</v>
@@ -11230,7 +12833,7 @@
       <c r="E12" s="38"/>
       <c r="G12" s="28"/>
       <c r="H12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="43">
         <v>13.95</v>
@@ -11253,7 +12856,7 @@
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
       <c r="H13" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="43">
         <v>184</v>
@@ -11276,7 +12879,7 @@
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
       <c r="H14" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" s="43">
         <v>97.14</v>
@@ -11298,10 +12901,10 @@
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="38">
         <v>49.75</v>
@@ -11323,10 +12926,10 @@
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" s="38">
         <v>68.989999999999995</v>
@@ -11349,10 +12952,10 @@
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="38">
         <v>12.99</v>
@@ -11374,10 +12977,10 @@
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I18" s="38">
         <v>61.98</v>
@@ -11399,7 +13002,7 @@
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>68</v>
@@ -11424,7 +13027,7 @@
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>82</v>
@@ -11449,10 +13052,10 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I21" s="38">
         <v>14.48</v>
@@ -11475,10 +13078,10 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I22" s="38">
         <v>15.96</v>
@@ -11502,7 +13105,7 @@
       <c r="E23" s="30"/>
       <c r="G23" s="28"/>
       <c r="H23" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I23" s="38">
         <v>900</v>
@@ -11598,7 +13201,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="H28" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I28" s="39">
         <f>SUM(N30)</f>
@@ -11619,7 +13222,7 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="H29" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I29" s="39">
         <f>E7</f>
@@ -11640,14 +13243,14 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I30" s="39">
         <f>(I25+I28)</f>
         <v>2747.5200000000004</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M30" s="39">
         <f>SUM(M7:M29)</f>
@@ -11663,7 +13266,7 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="39">
         <f>I29-I30</f>
@@ -11707,65 +13310,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="L4" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="C6" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
       <c r="M6" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38">
@@ -11773,7 +13376,7 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="43">
         <v>200</v>
@@ -11787,7 +13390,7 @@
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="43">
         <v>230</v>
@@ -11815,13 +13418,13 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="38"/>
       <c r="G10" s="28"/>
       <c r="H10" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="44">
         <v>69.72</v>
@@ -11837,7 +13440,7 @@
       <c r="E11" s="38"/>
       <c r="G11" s="28"/>
       <c r="H11" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" s="43">
         <v>1000</v>
@@ -11854,7 +13457,7 @@
       <c r="E12" s="38"/>
       <c r="G12" s="28"/>
       <c r="H12" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="43">
         <v>13.95</v>
@@ -11885,7 +13488,7 @@
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
       <c r="H14" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="43">
         <v>0</v>
@@ -11900,7 +13503,7 @@
       <c r="E15" s="30"/>
       <c r="G15" s="28"/>
       <c r="H15" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" s="43">
         <v>97.14</v>
@@ -11914,10 +13517,10 @@
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" s="38">
         <v>49.75</v>
@@ -11931,10 +13534,10 @@
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" s="38">
         <v>69.150000000000006</v>
@@ -11948,10 +13551,10 @@
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="38">
         <v>12.99</v>
@@ -11965,7 +13568,7 @@
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>68</v>
@@ -11999,10 +13602,10 @@
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="I21" s="38">
         <v>14.48</v>
@@ -12016,10 +13619,10 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I22" s="38">
         <v>15.96</v>
@@ -12034,10 +13637,10 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I23" s="38">
         <v>33</v>
@@ -12052,10 +13655,10 @@
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" s="38">
         <v>14.92</v>
@@ -12070,7 +13673,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>94</v>
@@ -12088,7 +13691,7 @@
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>94</v>
@@ -12106,7 +13709,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>94</v>
@@ -12124,7 +13727,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="G28" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>94</v>
@@ -12142,7 +13745,7 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="G29" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>94</v>
@@ -12160,10 +13763,10 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="G30" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="38">
         <v>33</v>
@@ -12179,10 +13782,10 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="G31" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I31" s="38">
         <v>257.25</v>
@@ -12199,7 +13802,7 @@
       <c r="E32" s="30"/>
       <c r="G32" s="28"/>
       <c r="H32" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I32" s="38">
         <v>550</v>
@@ -12260,7 +13863,7 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="H37" s="28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I37" s="39">
         <f>SUM(N39)</f>
@@ -12276,7 +13879,7 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="H38" s="28" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I38" s="39">
         <f>E7</f>
@@ -12292,14 +13895,14 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="H39" s="28" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I39" s="39">
         <f>(I34+I37)</f>
         <v>3178.57</v>
       </c>
       <c r="L39" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M39" s="39">
         <f>SUM(M7:M38)</f>
@@ -12315,7 +13918,7 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="H40" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I40" s="39">
         <f>I38-I39</f>

--- a/Arquivos Texto/Contas 2022.xlsx
+++ b/Arquivos Texto/Contas 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1D16F-43FD-4946-B50C-68467A580E47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F758CD3-2684-40C7-B4E8-3ED39090E89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="17" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="22" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,6 +31,13 @@
     <sheet name="Junho23" sheetId="16" r:id="rId16"/>
     <sheet name="Julho23" sheetId="17" r:id="rId17"/>
     <sheet name="Agosto23" sheetId="18" r:id="rId18"/>
+    <sheet name="Setembro23" sheetId="19" r:id="rId19"/>
+    <sheet name="Outubro23" sheetId="20" r:id="rId20"/>
+    <sheet name="Novembro23" sheetId="21" r:id="rId21"/>
+    <sheet name="Dezembro23" sheetId="22" r:id="rId22"/>
+    <sheet name="Janeiro24" sheetId="23" r:id="rId23"/>
+    <sheet name="Fevereiro24" sheetId="24" r:id="rId24"/>
+    <sheet name="Planilha3" sheetId="25" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="158">
   <si>
     <t>Cartões</t>
   </si>
@@ -457,6 +464,66 @@
   <si>
     <t>Cartão Fay</t>
   </si>
+  <si>
+    <t>(05/08)</t>
+  </si>
+  <si>
+    <t>(06/18)</t>
+  </si>
+  <si>
+    <t>(11/24)</t>
+  </si>
+  <si>
+    <t>(06/08)</t>
+  </si>
+  <si>
+    <t>(07/18)</t>
+  </si>
+  <si>
+    <t>(12/24)</t>
+  </si>
+  <si>
+    <t>Cartão ML</t>
+  </si>
+  <si>
+    <t>Tibia (Masti)</t>
+  </si>
+  <si>
+    <t>(07/08)</t>
+  </si>
+  <si>
+    <t>(08/18)</t>
+  </si>
+  <si>
+    <t>(13/24)</t>
+  </si>
+  <si>
+    <t>(08/08)</t>
+  </si>
+  <si>
+    <t>(09/18)</t>
+  </si>
+  <si>
+    <t>(14/24)</t>
+  </si>
+  <si>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>(10/18)</t>
+  </si>
+  <si>
+    <t>(15/24)</t>
+  </si>
+  <si>
+    <t>(11/18)</t>
+  </si>
+  <si>
+    <t>Passei Direto</t>
+  </si>
+  <si>
+    <t>ML - Arma</t>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,6 +1017,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,19 +1431,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="62" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1400,10 +1474,10 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1648,13 +1722,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="67">
+      <c r="E15" s="68">
         <f>SUM(C5:K14)</f>
         <v>1708.53</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1908,52 +1982,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="K4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2619,52 +2693,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -3344,52 +3418,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="41"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
@@ -4052,54 +4126,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="K4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="41"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
@@ -4919,52 +4993,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="K4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -5719,52 +5793,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -6559,52 +6633,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -7381,52 +7455,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -8196,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC6ACC-3F77-435C-9532-8E83CBFCF243}">
   <dimension ref="A2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,52 +8283,53 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="L3" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
       <c r="L5" s="56" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8340,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="38">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="42" t="s">
@@ -8274,6 +8349,7 @@
       <c r="H6" s="60">
         <v>200</v>
       </c>
+      <c r="I6" s="62"/>
       <c r="K6" s="31"/>
       <c r="L6" s="57"/>
     </row>
@@ -8286,6 +8362,7 @@
       <c r="H7" s="60">
         <v>230</v>
       </c>
+      <c r="I7" s="62"/>
       <c r="K7" s="31"/>
       <c r="L7" s="57"/>
     </row>
@@ -8301,6 +8378,7 @@
       <c r="H8" s="60">
         <v>230</v>
       </c>
+      <c r="I8" s="62"/>
       <c r="K8" s="31"/>
       <c r="L8" s="57"/>
     </row>
@@ -8316,6 +8394,7 @@
       <c r="H9" s="60">
         <v>70.099999999999994</v>
       </c>
+      <c r="I9" s="62"/>
       <c r="K9" s="31"/>
       <c r="L9" s="57"/>
     </row>
@@ -8331,6 +8410,7 @@
       <c r="H10" s="60">
         <v>17.45</v>
       </c>
+      <c r="I10" s="62"/>
       <c r="K10" s="31"/>
       <c r="L10" s="57"/>
     </row>
@@ -8346,6 +8426,7 @@
       <c r="H11" s="60">
         <v>200</v>
       </c>
+      <c r="I11" s="62"/>
       <c r="K11" s="31"/>
       <c r="L11" s="57"/>
     </row>
@@ -8359,8 +8440,9 @@
         <v>61</v>
       </c>
       <c r="H12" s="60">
-        <v>150</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I12" s="62"/>
       <c r="K12" s="31"/>
       <c r="L12" s="58"/>
     </row>
@@ -8376,6 +8458,7 @@
       <c r="H13" s="60">
         <v>97.14</v>
       </c>
+      <c r="I13" s="62"/>
       <c r="K13" s="31"/>
       <c r="L13" s="58"/>
     </row>
@@ -8665,7 +8748,7 @@
       <c r="K32" s="31"/>
       <c r="L32" s="57"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -8681,7 +8764,7 @@
       <c r="K33" s="31"/>
       <c r="L33" s="57"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
@@ -8697,7 +8780,7 @@
       <c r="K34" s="31"/>
       <c r="L34" s="57"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
@@ -8713,7 +8796,7 @@
       <c r="K35" s="31"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28"/>
@@ -8726,8 +8809,9 @@
       <c r="I36" s="25"/>
       <c r="K36" s="31"/>
       <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="R36" s="46"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
@@ -8735,13 +8819,13 @@
         <v>136</v>
       </c>
       <c r="H37" s="60">
-        <v>705.75</v>
+        <v>1198.71</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="31"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28"/>
@@ -8755,7 +8839,7 @@
       <c r="K38" s="31"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="3:12" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:18" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="F39" s="1"/>
@@ -8765,19 +8849,19 @@
       <c r="K39" s="31"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="1"/>
       <c r="H40" s="39">
         <f>SUM(H5:H39)</f>
-        <v>3808.5600000000004</v>
+        <v>4244.5200000000004</v>
       </c>
       <c r="I40" s="25"/>
       <c r="K40" s="31"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="H41" s="40"/>
@@ -8785,14 +8869,14 @@
       <c r="K41" s="31"/>
       <c r="L41" s="57"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="H42" s="40"/>
       <c r="K42" s="31"/>
       <c r="L42" s="57"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
@@ -8805,7 +8889,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="57"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
@@ -8813,12 +8897,12 @@
       </c>
       <c r="H44" s="39">
         <f>D6</f>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="57"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
@@ -8826,12 +8910,12 @@
       </c>
       <c r="H45" s="39">
         <f>(H40+H43)</f>
-        <v>3808.5600000000004</v>
+        <v>4244.5200000000004</v>
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="57"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="G46" s="28" t="s">
@@ -8839,18 +8923,18 @@
       </c>
       <c r="H46" s="39">
         <f>H44-H45</f>
-        <v>991.4399999999996</v>
+        <v>755.47999999999956</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="57"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="K47" s="31"/>
       <c r="L47" s="57"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="31"/>
@@ -8893,6 +8977,551 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DADE2-48BB-4DD5-BD1F-9B34B49BA4E9}">
+  <dimension ref="B2:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4450</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="60">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="38">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="41">
+        <v>41.57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="38">
+        <v>33</v>
+      </c>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="60">
+        <v>125.92</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="60">
+        <v>990.79</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="60">
+        <v>654.62</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="3:9" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>3533.8100000000004</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="39">
+        <f>L52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="39">
+        <f>D6</f>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="39">
+        <f>(H40+H43)</f>
+        <v>3533.8100000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="39">
+        <f>H44-H45</f>
+        <v>916.1899999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -8922,52 +9551,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -9477,6 +10106,2383 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C60F06-B1E6-4F0E-9A96-0C9A43A9DC84}">
+  <dimension ref="B2:I47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4450</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="60">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="38">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="41">
+        <v>41.57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="38">
+        <v>33</v>
+      </c>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="38">
+        <v>48.12</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="60">
+        <v>118.74</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="60">
+        <v>1487.25</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="60">
+        <v>98.71</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="3:9" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>3760.2999999999997</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="39">
+        <f>L52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="39">
+        <f>D6</f>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="39">
+        <f>(H40+H43)</f>
+        <v>3760.2999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="39">
+        <f>H44-H45</f>
+        <v>689.70000000000027</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E0387-EF76-408F-AEF0-1FB9F58D7FA0}">
+  <dimension ref="B2:I47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4525</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="60">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="38">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="38">
+        <v>48.12</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="60">
+        <v>164.54</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="60">
+        <v>1403.78</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="60">
+        <v>314.14</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="3:9" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>3673.08</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="39">
+        <f>L52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="39">
+        <f>D6</f>
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="39">
+        <f>(H40+H43)</f>
+        <v>3673.08</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="39">
+        <f>H44-H45</f>
+        <v>851.92000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37DB9E5-6AB2-4CE7-8225-A3B2256AFC51}">
+  <dimension ref="B2:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4425</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="60">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="38">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="38">
+        <v>148.16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="38">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="60">
+        <v>550.49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="60">
+        <v>1307.7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="60">
+        <v>491.39</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39">
+        <f>SUM(H5:H39)</f>
+        <v>4233.05</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="39">
+        <f>D6</f>
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="39">
+        <v>199.17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="G46" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="39">
+        <v>269.38</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="G47" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="39">
+        <f>(H40-H46-H45)</f>
+        <v>3764.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="G48" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="39">
+        <f>H44-H47</f>
+        <v>660.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E7D08F-8FA8-4DE6-B003-9C50D4627A27}">
+  <dimension ref="B3:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="38">
+        <v>4725</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="38">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="38">
+        <v>148.16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="38">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="60">
+        <v>274.13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1901.79</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="60">
+        <v>622.83000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="39">
+        <f>SUM(H6:H28)</f>
+        <v>4708.4799999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="G33" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="39">
+        <f>D7</f>
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="G34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="G35" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="39">
+        <v>371.39</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="G36" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="39">
+        <f>(H29-H35-H34)</f>
+        <v>3937.0899999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="G37" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="39">
+        <f>H33-H36</f>
+        <v>787.91000000000076</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA1C11B-7C47-4C23-9648-488E2240BC32}">
+  <dimension ref="C3:I38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="38">
+        <v>4100</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="40"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="60">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="60">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="60"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="38">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="G16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="G17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="38">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="41">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="41">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="G20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="41">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="38">
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="38">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="38">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="38">
+        <v>148.16</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="38">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="60">
+        <v>195.33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="60">
+        <v>40.14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="60">
+        <v>106.92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="39">
+        <f>SUM(I6:I29)</f>
+        <v>2182.9699999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="H34" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="39">
+        <f>E7</f>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="H35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="H36" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="39">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="H37" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="39">
+        <f>(I30-I36-I35)</f>
+        <v>2133.4699999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="H38" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="39">
+        <f>I34-I37</f>
+        <v>1966.5300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7C42F-4383-48C7-9D47-8E30399A4708}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -9507,52 +12513,52 @@
       <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="K3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
       <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
@@ -10122,52 +13128,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="K4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="E5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="L6" s="28" t="s">
         <v>27</v>
       </c>
@@ -10696,52 +13702,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -11272,52 +14278,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -11942,52 +14948,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -12643,52 +15649,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
@@ -13310,52 +16316,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="L4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="L4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="G5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="M6" s="28" t="s">
         <v>27</v>
       </c>
